--- a/KLK6_ELISA_data_correct_for_dilution.xlsx
+++ b/KLK6_ELISA_data_correct_for_dilution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/miyo_chatanaka_mail_utoronto_ca/Documents/University/University of Toronto/Diamandis Lab/Analyses/People Analyses/Miyo/2025/KLK6 assay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="11_58BF3834AC52AC87F8183A171ADFBF1AF86F5DB7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1F80A81-9DDF-405C-9AB3-A46F437FB6A8}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="11_58BF3834AC52AC87F8183A171ADFBF1AF86F5DB7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96112A30-869F-4323-9B7A-6879997C1915}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="811">
   <si>
     <t>Plate 1</t>
   </si>
@@ -1289,6 +1289,1188 @@
   </si>
   <si>
     <t>Combination of dates and plates</t>
+  </si>
+  <si>
+    <t>Original_ID_ACE</t>
+  </si>
+  <si>
+    <t>CC000045.05</t>
+  </si>
+  <si>
+    <t>CC000062.05</t>
+  </si>
+  <si>
+    <t>CC000020.05</t>
+  </si>
+  <si>
+    <t>CC000009.05</t>
+  </si>
+  <si>
+    <t>CC000026.05</t>
+  </si>
+  <si>
+    <t>CC000134.06</t>
+  </si>
+  <si>
+    <t>CC000136.06</t>
+  </si>
+  <si>
+    <t>CC000137.07</t>
+  </si>
+  <si>
+    <t>CC000140.05</t>
+  </si>
+  <si>
+    <t>CC001404.04</t>
+  </si>
+  <si>
+    <t>CC001512.04</t>
+  </si>
+  <si>
+    <t>CC000205.04</t>
+  </si>
+  <si>
+    <t>CC000377.08</t>
+  </si>
+  <si>
+    <t>CC000378.04</t>
+  </si>
+  <si>
+    <t>CC000128.07</t>
+  </si>
+  <si>
+    <t>CC000127.06</t>
+  </si>
+  <si>
+    <t>CC000129.04</t>
+  </si>
+  <si>
+    <t>CC000098.06</t>
+  </si>
+  <si>
+    <t>CC000130.15</t>
+  </si>
+  <si>
+    <t>CC000131.08</t>
+  </si>
+  <si>
+    <t>CC000133.15</t>
+  </si>
+  <si>
+    <t>CC000008.03</t>
+  </si>
+  <si>
+    <t>CC000027.05</t>
+  </si>
+  <si>
+    <t>CC000028.06</t>
+  </si>
+  <si>
+    <t>CC000029.05</t>
+  </si>
+  <si>
+    <t>CC000030.05</t>
+  </si>
+  <si>
+    <t>CC000037.03</t>
+  </si>
+  <si>
+    <t>CC000046.05</t>
+  </si>
+  <si>
+    <t>CC000048.05</t>
+  </si>
+  <si>
+    <t>CC000049.05</t>
+  </si>
+  <si>
+    <t>CC000056.04</t>
+  </si>
+  <si>
+    <t>CC000333.04</t>
+  </si>
+  <si>
+    <t>CC000335.04</t>
+  </si>
+  <si>
+    <t>CC000332.04</t>
+  </si>
+  <si>
+    <t>CC000354.04</t>
+  </si>
+  <si>
+    <t>CC000356.08</t>
+  </si>
+  <si>
+    <t>CC001378.04</t>
+  </si>
+  <si>
+    <t>CC001380.04</t>
+  </si>
+  <si>
+    <t>CC001475.04</t>
+  </si>
+  <si>
+    <t>CC000227.15</t>
+  </si>
+  <si>
+    <t>CC000230.06</t>
+  </si>
+  <si>
+    <t>CC000075.06</t>
+  </si>
+  <si>
+    <t>CC000104.05</t>
+  </si>
+  <si>
+    <t>CC000105.06</t>
+  </si>
+  <si>
+    <t>CC000106.15</t>
+  </si>
+  <si>
+    <t>CC000107.08</t>
+  </si>
+  <si>
+    <t>CC001508.04</t>
+  </si>
+  <si>
+    <t>CC000004.05</t>
+  </si>
+  <si>
+    <t>CC000007.04</t>
+  </si>
+  <si>
+    <t>CC000011.03</t>
+  </si>
+  <si>
+    <t>CC000069.04</t>
+  </si>
+  <si>
+    <t>CC000071.05</t>
+  </si>
+  <si>
+    <t>CC000082.05</t>
+  </si>
+  <si>
+    <t>CC000061.05</t>
+  </si>
+  <si>
+    <t>CC000213.04</t>
+  </si>
+  <si>
+    <t>CC000397.04</t>
+  </si>
+  <si>
+    <t>CC000399.04</t>
+  </si>
+  <si>
+    <t>CC000401.05</t>
+  </si>
+  <si>
+    <t>CC001455.04</t>
+  </si>
+  <si>
+    <t>CC000145.06</t>
+  </si>
+  <si>
+    <t>CC000148.08</t>
+  </si>
+  <si>
+    <t>CC000241.06</t>
+  </si>
+  <si>
+    <t>CC000240.04</t>
+  </si>
+  <si>
+    <t>CC000244.06</t>
+  </si>
+  <si>
+    <t>CC001453.04</t>
+  </si>
+  <si>
+    <t>CC001426.04</t>
+  </si>
+  <si>
+    <t>CC001428.04</t>
+  </si>
+  <si>
+    <t>CC000199.06</t>
+  </si>
+  <si>
+    <t>CC000163.04</t>
+  </si>
+  <si>
+    <t>CC000166.06</t>
+  </si>
+  <si>
+    <t>CC000167.06</t>
+  </si>
+  <si>
+    <t>CC000168.06</t>
+  </si>
+  <si>
+    <t>CC000728.03</t>
+  </si>
+  <si>
+    <t>CC000725.03</t>
+  </si>
+  <si>
+    <t>CC000731.03</t>
+  </si>
+  <si>
+    <t>CC000521.04</t>
+  </si>
+  <si>
+    <t>CC000522.04</t>
+  </si>
+  <si>
+    <t>CC000524.04</t>
+  </si>
+  <si>
+    <t>CC000661.03</t>
+  </si>
+  <si>
+    <t>CC000662.03</t>
+  </si>
+  <si>
+    <t>CC000664.03</t>
+  </si>
+  <si>
+    <t>CC001104.04</t>
+  </si>
+  <si>
+    <t>CC000717.03</t>
+  </si>
+  <si>
+    <t>CC001383.04</t>
+  </si>
+  <si>
+    <t>CC001460.04</t>
+  </si>
+  <si>
+    <t>CC000425.04</t>
+  </si>
+  <si>
+    <t>CC000427.04</t>
+  </si>
+  <si>
+    <t>CC000491.04</t>
+  </si>
+  <si>
+    <t>CC000533.05</t>
+  </si>
+  <si>
+    <t>CC000537.05</t>
+  </si>
+  <si>
+    <t>CC000538.04</t>
+  </si>
+  <si>
+    <t>CC000234.04</t>
+  </si>
+  <si>
+    <t>CC000235.04</t>
+  </si>
+  <si>
+    <t>CC001345.04</t>
+  </si>
+  <si>
+    <t>CC001344.04</t>
+  </si>
+  <si>
+    <t>CC000084.08</t>
+  </si>
+  <si>
+    <t>CC000091.05</t>
+  </si>
+  <si>
+    <t>CC000092.03</t>
+  </si>
+  <si>
+    <t>CC000929.03</t>
+  </si>
+  <si>
+    <t>CC000933.05</t>
+  </si>
+  <si>
+    <t>CC000905.03</t>
+  </si>
+  <si>
+    <t>CC000855.13</t>
+  </si>
+  <si>
+    <t>CC000858.05</t>
+  </si>
+  <si>
+    <t>CC000749.05</t>
+  </si>
+  <si>
+    <t>CC000754.03</t>
+  </si>
+  <si>
+    <t>CC001095.04</t>
+  </si>
+  <si>
+    <t>CC001066.03</t>
+  </si>
+  <si>
+    <t>CC000322.04</t>
+  </si>
+  <si>
+    <t>CC000323.04</t>
+  </si>
+  <si>
+    <t>CC000324.04</t>
+  </si>
+  <si>
+    <t>CC000149.04</t>
+  </si>
+  <si>
+    <t>CC000150.04</t>
+  </si>
+  <si>
+    <t>CC000151.06</t>
+  </si>
+  <si>
+    <t>CC000154.06</t>
+  </si>
+  <si>
+    <t>CC000156.04</t>
+  </si>
+  <si>
+    <t>CC000339.04</t>
+  </si>
+  <si>
+    <t>CC000340.04</t>
+  </si>
+  <si>
+    <t>CC000341.04</t>
+  </si>
+  <si>
+    <t>CC000343.04</t>
+  </si>
+  <si>
+    <t>CC000344.04</t>
+  </si>
+  <si>
+    <t>CC000345.04</t>
+  </si>
+  <si>
+    <t>CC000192.06</t>
+  </si>
+  <si>
+    <t>CC000193.06</t>
+  </si>
+  <si>
+    <t>CC000671.03</t>
+  </si>
+  <si>
+    <t>CC000672.03</t>
+  </si>
+  <si>
+    <t>CC001026.03</t>
+  </si>
+  <si>
+    <t>CC000214.07</t>
+  </si>
+  <si>
+    <t>CC000215.08</t>
+  </si>
+  <si>
+    <t>CC000219.06</t>
+  </si>
+  <si>
+    <t>CC000217.06</t>
+  </si>
+  <si>
+    <t>CC000220.04</t>
+  </si>
+  <si>
+    <t>CC000928.03</t>
+  </si>
+  <si>
+    <t>CC000930.05</t>
+  </si>
+  <si>
+    <t>CC000722.03</t>
+  </si>
+  <si>
+    <t>CC000288.07</t>
+  </si>
+  <si>
+    <t>CC000289.06</t>
+  </si>
+  <si>
+    <t>CC001035.03</t>
+  </si>
+  <si>
+    <t>CC001041.03</t>
+  </si>
+  <si>
+    <t>CC000997.03</t>
+  </si>
+  <si>
+    <t>CC000486.04</t>
+  </si>
+  <si>
+    <t>CC000487.04</t>
+  </si>
+  <si>
+    <t>CC000568.04</t>
+  </si>
+  <si>
+    <t>CC000571.04</t>
+  </si>
+  <si>
+    <t>CC000802.03</t>
+  </si>
+  <si>
+    <t>CC001261.04</t>
+  </si>
+  <si>
+    <t>CC000735.03</t>
+  </si>
+  <si>
+    <t>CC000618.04</t>
+  </si>
+  <si>
+    <t>CC000888.13</t>
+  </si>
+  <si>
+    <t>CC000710.03</t>
+  </si>
+  <si>
+    <t>CC000095.04</t>
+  </si>
+  <si>
+    <t>CC001150.04</t>
+  </si>
+  <si>
+    <t>CC000457.05</t>
+  </si>
+  <si>
+    <t>CC000459.05</t>
+  </si>
+  <si>
+    <t>CC000429.04</t>
+  </si>
+  <si>
+    <t>CC000431.07</t>
+  </si>
+  <si>
+    <t>CC000433.04</t>
+  </si>
+  <si>
+    <t>CC000434.04</t>
+  </si>
+  <si>
+    <t>CC000810.13</t>
+  </si>
+  <si>
+    <t>CC001004.03</t>
+  </si>
+  <si>
+    <t>CC000043.03</t>
+  </si>
+  <si>
+    <t>CC000039.03</t>
+  </si>
+  <si>
+    <t>CC000959.05</t>
+  </si>
+  <si>
+    <t>CC000944.05</t>
+  </si>
+  <si>
+    <t>CC000892.03</t>
+  </si>
+  <si>
+    <t>CC000893.03</t>
+  </si>
+  <si>
+    <t>CC000342.06</t>
+  </si>
+  <si>
+    <t>CC000403.07</t>
+  </si>
+  <si>
+    <t>CC000405.04</t>
+  </si>
+  <si>
+    <t>CC000406.04</t>
+  </si>
+  <si>
+    <t>CC000112.08</t>
+  </si>
+  <si>
+    <t>CC000113.07</t>
+  </si>
+  <si>
+    <t>CC000114.07</t>
+  </si>
+  <si>
+    <t>CC000117.04</t>
+  </si>
+  <si>
+    <t>CC000412.04</t>
+  </si>
+  <si>
+    <t>CC000414.05</t>
+  </si>
+  <si>
+    <t>CC000415.07</t>
+  </si>
+  <si>
+    <t>CC000418.04</t>
+  </si>
+  <si>
+    <t>CC000978.03</t>
+  </si>
+  <si>
+    <t>CC000296.04</t>
+  </si>
+  <si>
+    <t>CC000298.04</t>
+  </si>
+  <si>
+    <t>CC000314.06</t>
+  </si>
+  <si>
+    <t>CC000316.05</t>
+  </si>
+  <si>
+    <t>CC000311.04</t>
+  </si>
+  <si>
+    <t>CC000317.07</t>
+  </si>
+  <si>
+    <t>CC000318.04</t>
+  </si>
+  <si>
+    <t>CC000636.03</t>
+  </si>
+  <si>
+    <t>CC000637.03</t>
+  </si>
+  <si>
+    <t>CC000638.03</t>
+  </si>
+  <si>
+    <t>CC000494.04</t>
+  </si>
+  <si>
+    <t>CC000383.04</t>
+  </si>
+  <si>
+    <t>CC000384.05</t>
+  </si>
+  <si>
+    <t>CC000385.05</t>
+  </si>
+  <si>
+    <t>CC000463.03</t>
+  </si>
+  <si>
+    <t>CC000465.04</t>
+  </si>
+  <si>
+    <t>CC000629.03</t>
+  </si>
+  <si>
+    <t>CC000630.03</t>
+  </si>
+  <si>
+    <t>CC000631.03</t>
+  </si>
+  <si>
+    <t>CC000632.03</t>
+  </si>
+  <si>
+    <t>CC000633.03</t>
+  </si>
+  <si>
+    <t>CC000949.05</t>
+  </si>
+  <si>
+    <t>CC001371.04</t>
+  </si>
+  <si>
+    <t>CC001372.04</t>
+  </si>
+  <si>
+    <t>CC001324.04</t>
+  </si>
+  <si>
+    <t>CC000170.15</t>
+  </si>
+  <si>
+    <t>CC000172.06</t>
+  </si>
+  <si>
+    <t>CC000173.06</t>
+  </si>
+  <si>
+    <t>CC000894.03</t>
+  </si>
+  <si>
+    <t>CC000245.05</t>
+  </si>
+  <si>
+    <t>CC000246.06</t>
+  </si>
+  <si>
+    <t>CC000248.06</t>
+  </si>
+  <si>
+    <t>CC000249.07</t>
+  </si>
+  <si>
+    <t>CC000326.04</t>
+  </si>
+  <si>
+    <t>CC000118.05</t>
+  </si>
+  <si>
+    <t>CC000119.15</t>
+  </si>
+  <si>
+    <t>CC000120.04</t>
+  </si>
+  <si>
+    <t>CC000123.07</t>
+  </si>
+  <si>
+    <t>CC000511.04</t>
+  </si>
+  <si>
+    <t>CC000513.04</t>
+  </si>
+  <si>
+    <t>CC001111.04</t>
+  </si>
+  <si>
+    <t>CC000346.07</t>
+  </si>
+  <si>
+    <t>CC000347.06</t>
+  </si>
+  <si>
+    <t>CC000349.04</t>
+  </si>
+  <si>
+    <t>CC000348.04</t>
+  </si>
+  <si>
+    <t>CC000350.04</t>
+  </si>
+  <si>
+    <t>CC000351.04</t>
+  </si>
+  <si>
+    <t>CC000875.03</t>
+  </si>
+  <si>
+    <t>CC000876.03</t>
+  </si>
+  <si>
+    <t>CC000878.03</t>
+  </si>
+  <si>
+    <t>CC000266.04</t>
+  </si>
+  <si>
+    <t>CC000687.03</t>
+  </si>
+  <si>
+    <t>CC000689.03</t>
+  </si>
+  <si>
+    <t>CC000517.06</t>
+  </si>
+  <si>
+    <t>CC000518.04</t>
+  </si>
+  <si>
+    <t>CC000520.04</t>
+  </si>
+  <si>
+    <t>CC001214.04</t>
+  </si>
+  <si>
+    <t>CC001268.04</t>
+  </si>
+  <si>
+    <t>CC000655.03</t>
+  </si>
+  <si>
+    <t>CC000498.04</t>
+  </si>
+  <si>
+    <t>CC000500.04</t>
+  </si>
+  <si>
+    <t>CC000501.04</t>
+  </si>
+  <si>
+    <t>CC000502.04</t>
+  </si>
+  <si>
+    <t>CC001166.04</t>
+  </si>
+  <si>
+    <t>CC000647.03</t>
+  </si>
+  <si>
+    <t>CC000539.04</t>
+  </si>
+  <si>
+    <t>CC000480.04</t>
+  </si>
+  <si>
+    <t>CC000481.04</t>
+  </si>
+  <si>
+    <t>CC000448.04</t>
+  </si>
+  <si>
+    <t>CC000483.04</t>
+  </si>
+  <si>
+    <t>CC001144.04</t>
+  </si>
+  <si>
+    <t>CC000419.04</t>
+  </si>
+  <si>
+    <t>CC000421.04</t>
+  </si>
+  <si>
+    <t>CC000423.04</t>
+  </si>
+  <si>
+    <t>CC000424.04</t>
+  </si>
+  <si>
+    <t>CC000504.04</t>
+  </si>
+  <si>
+    <t>CC000505.04</t>
+  </si>
+  <si>
+    <t>CC000506.04</t>
+  </si>
+  <si>
+    <t>CC000509.04</t>
+  </si>
+  <si>
+    <t>CC002281.04</t>
+  </si>
+  <si>
+    <t>CC002376.04</t>
+  </si>
+  <si>
+    <t>CC002350.04</t>
+  </si>
+  <si>
+    <t>CC002335.04</t>
+  </si>
+  <si>
+    <t>CC002322.04</t>
+  </si>
+  <si>
+    <t>CC000386.05</t>
+  </si>
+  <si>
+    <t>CC000387.04</t>
+  </si>
+  <si>
+    <t>CC000388.04</t>
+  </si>
+  <si>
+    <t>CC000390.04</t>
+  </si>
+  <si>
+    <t>CC000278.06</t>
+  </si>
+  <si>
+    <t>CC000277.07</t>
+  </si>
+  <si>
+    <t>CC000070.05</t>
+  </si>
+  <si>
+    <t>CC000074.14</t>
+  </si>
+  <si>
+    <t>CC000834.03</t>
+  </si>
+  <si>
+    <t>CC000839.03</t>
+  </si>
+  <si>
+    <t>CC000836.13</t>
+  </si>
+  <si>
+    <t>CC000366.04</t>
+  </si>
+  <si>
+    <t>CC000368.04</t>
+  </si>
+  <si>
+    <t>CC000365.04</t>
+  </si>
+  <si>
+    <t>CC001295.04</t>
+  </si>
+  <si>
+    <t>CC001349.04</t>
+  </si>
+  <si>
+    <t>CC001212.04</t>
+  </si>
+  <si>
+    <t>CC000306.04</t>
+  </si>
+  <si>
+    <t>CC000788.03</t>
+  </si>
+  <si>
+    <t>CC000870.03</t>
+  </si>
+  <si>
+    <t>CC000865.03</t>
+  </si>
+  <si>
+    <t>CC000863.05</t>
+  </si>
+  <si>
+    <t>CC000866.03</t>
+  </si>
+  <si>
+    <t>CC000775.05</t>
+  </si>
+  <si>
+    <t>CC000742.03</t>
+  </si>
+  <si>
+    <t>CC000613.04</t>
+  </si>
+  <si>
+    <t>CC000611.04</t>
+  </si>
+  <si>
+    <t>CC000860.05</t>
+  </si>
+  <si>
+    <t>CC000862.03</t>
+  </si>
+  <si>
+    <t>CC001160.04</t>
+  </si>
+  <si>
+    <t>CC001342.04</t>
+  </si>
+  <si>
+    <t>CC000440.05</t>
+  </si>
+  <si>
+    <t>CC000446.04</t>
+  </si>
+  <si>
+    <t>CC001107.04</t>
+  </si>
+  <si>
+    <t>CC001252.04</t>
+  </si>
+  <si>
+    <t>CC000695.03</t>
+  </si>
+  <si>
+    <t>CC000579.04</t>
+  </si>
+  <si>
+    <t>CC000527.04</t>
+  </si>
+  <si>
+    <t>CC000531.06</t>
+  </si>
+  <si>
+    <t>CC000374.04</t>
+  </si>
+  <si>
+    <t>CC000408.04</t>
+  </si>
+  <si>
+    <t>CC000409.04</t>
+  </si>
+  <si>
+    <t>CC000920.05</t>
+  </si>
+  <si>
+    <t>CC000309.04</t>
+  </si>
+  <si>
+    <t>CC000410.04</t>
+  </si>
+  <si>
+    <t>CC000310.05</t>
+  </si>
+  <si>
+    <t>CC000313.08</t>
+  </si>
+  <si>
+    <t>CC000188.06</t>
+  </si>
+  <si>
+    <t>CC000910.03</t>
+  </si>
+  <si>
+    <t>CC000606.04</t>
+  </si>
+  <si>
+    <t>CC000608.04</t>
+  </si>
+  <si>
+    <t>CC000816.13</t>
+  </si>
+  <si>
+    <t>CC000820.13</t>
+  </si>
+  <si>
+    <t>CC000823.13</t>
+  </si>
+  <si>
+    <t>CC000803.03</t>
+  </si>
+  <si>
+    <t>CC000815.03</t>
+  </si>
+  <si>
+    <t>CC001080.05</t>
+  </si>
+  <si>
+    <t>CC000545.05</t>
+  </si>
+  <si>
+    <t>CC000549.05</t>
+  </si>
+  <si>
+    <t>CC000259.07</t>
+  </si>
+  <si>
+    <t>CC000261.05</t>
+  </si>
+  <si>
+    <t>CC000263.04</t>
+  </si>
+  <si>
+    <t>CC000264.06</t>
+  </si>
+  <si>
+    <t>CC000176.04</t>
+  </si>
+  <si>
+    <t>CC000177.06</t>
+  </si>
+  <si>
+    <t>CC000179.05</t>
+  </si>
+  <si>
+    <t>CC000180.06</t>
+  </si>
+  <si>
+    <t>CC000603.04</t>
+  </si>
+  <si>
+    <t>CC000359.04</t>
+  </si>
+  <si>
+    <t>CC000361.07</t>
+  </si>
+  <si>
+    <t>CC000362.06</t>
+  </si>
+  <si>
+    <t>CC001223.04</t>
+  </si>
+  <si>
+    <t>CC000984.03</t>
+  </si>
+  <si>
+    <t>CC000985.03</t>
+  </si>
+  <si>
+    <t>CC000986.03</t>
+  </si>
+  <si>
+    <t>CC000969.05</t>
+  </si>
+  <si>
+    <t>CC000970.03</t>
+  </si>
+  <si>
+    <t>CC000971.03</t>
+  </si>
+  <si>
+    <t>CC000975.06</t>
+  </si>
+  <si>
+    <t>CC000973.05</t>
+  </si>
+  <si>
+    <t>CC000976.05</t>
+  </si>
+  <si>
+    <t>CC001057.03</t>
+  </si>
+  <si>
+    <t>CC000554.04</t>
+  </si>
+  <si>
+    <t>CC000556.05</t>
+  </si>
+  <si>
+    <t>CC000572.04</t>
+  </si>
+  <si>
+    <t>CC000573.04</t>
+  </si>
+  <si>
+    <t>CC000585.04</t>
+  </si>
+  <si>
+    <t>CC000588.04</t>
+  </si>
+  <si>
+    <t>CC000673.03</t>
+  </si>
+  <si>
+    <t>CC000685.03</t>
+  </si>
+  <si>
+    <t>CC000737.03</t>
+  </si>
+  <si>
+    <t>CC000739.03</t>
+  </si>
+  <si>
+    <t>CC000740.03</t>
+  </si>
+  <si>
+    <t>CC000224.06</t>
+  </si>
+  <si>
+    <t>CC000226.06</t>
+  </si>
+  <si>
+    <t>CC000254.04</t>
+  </si>
+  <si>
+    <t>CC000255.06</t>
+  </si>
+  <si>
+    <t>CC000258.07</t>
+  </si>
+  <si>
+    <t>CC000391.05</t>
+  </si>
+  <si>
+    <t>CC000392.04</t>
+  </si>
+  <si>
+    <t>CC000267.06</t>
+  </si>
+  <si>
+    <t>CC000268.06</t>
+  </si>
+  <si>
+    <t>CC000272.08</t>
+  </si>
+  <si>
+    <t>CC000271.08</t>
+  </si>
+  <si>
+    <t>CC000292.05</t>
+  </si>
+  <si>
+    <t>CC001134.04</t>
+  </si>
+  <si>
+    <t>CC001357.04</t>
+  </si>
+  <si>
+    <t>CC000558.04</t>
+  </si>
+  <si>
+    <t>CC000560.04</t>
+  </si>
+  <si>
+    <t>CC000472.05</t>
+  </si>
+  <si>
+    <t>CC000162.06</t>
+  </si>
+  <si>
+    <t>CC000157.05</t>
+  </si>
+  <si>
+    <t>CC000158.05</t>
+  </si>
+  <si>
+    <t>CC000769.03</t>
+  </si>
+  <si>
+    <t>CC000770.03</t>
+  </si>
+  <si>
+    <t>CC000567.04</t>
+  </si>
+  <si>
+    <t>CC000591.04</t>
+  </si>
+  <si>
+    <t>CC000592.06</t>
+  </si>
+  <si>
+    <t>CC001247.04</t>
+  </si>
+  <si>
+    <t>CC000844.03</t>
+  </si>
+  <si>
+    <t>CC000476.04</t>
+  </si>
+  <si>
+    <t>CC000477.04</t>
+  </si>
+  <si>
+    <t>CC001019.03</t>
+  </si>
+  <si>
+    <t>CC000745.03</t>
+  </si>
+  <si>
+    <t>CC000746.03</t>
+  </si>
+  <si>
+    <t>CC000122.15</t>
+  </si>
+  <si>
+    <t>CC000142.08</t>
+  </si>
+  <si>
+    <t>CC000143.08</t>
+  </si>
+  <si>
+    <t>CC000238.07</t>
+  </si>
+  <si>
+    <t>CC000257.08</t>
+  </si>
+  <si>
+    <t>CC000846.04</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +2572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1405,7 +2587,6 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1421,10 +2602,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1692,7 +2869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -4853,10 +6030,14 @@
   <dimension ref="A1:Q395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
@@ -4883,6 +6064,9 @@
       <c r="C2" t="s">
         <v>215</v>
       </c>
+      <c r="D2" t="s">
+        <v>417</v>
+      </c>
       <c r="I2" s="6"/>
       <c r="L2" s="6"/>
       <c r="N2" s="6"/>
@@ -4898,6 +6082,9 @@
       <c r="C3" t="s">
         <v>216</v>
       </c>
+      <c r="D3" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -4909,6 +6096,9 @@
       <c r="C4" t="s">
         <v>217</v>
       </c>
+      <c r="D4" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -4920,6 +6110,9 @@
       <c r="C5" t="s">
         <v>216</v>
       </c>
+      <c r="D5" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -4931,6 +6124,9 @@
       <c r="C6" t="s">
         <v>217</v>
       </c>
+      <c r="D6" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
@@ -4942,6 +6138,9 @@
       <c r="C7" t="s">
         <v>217</v>
       </c>
+      <c r="D7" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -4953,6 +6152,9 @@
       <c r="C8" t="s">
         <v>217</v>
       </c>
+      <c r="D8" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -4964,6 +6166,9 @@
       <c r="C9" t="s">
         <v>217</v>
       </c>
+      <c r="D9" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -4975,6 +6180,9 @@
       <c r="C10" t="s">
         <v>218</v>
       </c>
+      <c r="D10" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
@@ -4986,6 +6194,9 @@
       <c r="C11" t="s">
         <v>219</v>
       </c>
+      <c r="D11" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -4997,6 +6208,9 @@
       <c r="C12" t="s">
         <v>218</v>
       </c>
+      <c r="D12" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
@@ -5008,6 +6222,9 @@
       <c r="C13" t="s">
         <v>218</v>
       </c>
+      <c r="D13" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -5019,6 +6236,9 @@
       <c r="C14" t="s">
         <v>219</v>
       </c>
+      <c r="D14" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -5030,6 +6250,9 @@
       <c r="C15" t="s">
         <v>218</v>
       </c>
+      <c r="D15" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -5041,8 +6264,11 @@
       <c r="C16" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>296.5</v>
       </c>
@@ -5052,8 +6278,11 @@
       <c r="C17" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>236.5</v>
       </c>
@@ -5063,8 +6292,11 @@
       <c r="C18" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>287.5</v>
       </c>
@@ -5074,8 +6306,11 @@
       <c r="C19" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>331.5</v>
       </c>
@@ -5085,8 +6320,11 @@
       <c r="C20" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>177.5</v>
       </c>
@@ -5096,8 +6334,11 @@
       <c r="C21" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>343.5</v>
       </c>
@@ -5107,8 +6348,11 @@
       <c r="C22" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>272</v>
       </c>
@@ -5118,8 +6362,11 @@
       <c r="C23" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>242</v>
       </c>
@@ -5129,8 +6376,11 @@
       <c r="C24" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>314.5</v>
       </c>
@@ -5140,8 +6390,11 @@
       <c r="C25" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>274</v>
       </c>
@@ -5151,8 +6404,11 @@
       <c r="C26" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>312</v>
       </c>
@@ -5162,8 +6418,11 @@
       <c r="C27" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>304.5</v>
       </c>
@@ -5173,8 +6432,11 @@
       <c r="C28" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>229</v>
       </c>
@@ -5184,8 +6446,11 @@
       <c r="C29" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>233</v>
       </c>
@@ -5195,8 +6460,11 @@
       <c r="C30" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>172</v>
       </c>
@@ -5206,8 +6474,11 @@
       <c r="C31" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>292.5</v>
       </c>
@@ -5217,8 +6488,11 @@
       <c r="C32" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>241.5</v>
       </c>
@@ -5228,8 +6502,11 @@
       <c r="C33" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>190.5</v>
       </c>
@@ -5239,8 +6516,11 @@
       <c r="C34" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>285.5</v>
       </c>
@@ -5250,8 +6530,11 @@
       <c r="C35" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>402.5</v>
       </c>
@@ -5261,8 +6544,11 @@
       <c r="C36" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>366</v>
       </c>
@@ -5272,8 +6558,11 @@
       <c r="C37" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>269.5</v>
       </c>
@@ -5283,8 +6572,11 @@
       <c r="C38" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>320.5</v>
       </c>
@@ -5294,8 +6586,11 @@
       <c r="C39" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>420.5</v>
       </c>
@@ -5305,8 +6600,11 @@
       <c r="C40" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>311</v>
       </c>
@@ -5316,8 +6614,11 @@
       <c r="C41" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>203</v>
       </c>
@@ -5327,8 +6628,11 @@
       <c r="C42" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>363</v>
       </c>
@@ -5338,8 +6642,11 @@
       <c r="C43" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>338</v>
       </c>
@@ -5349,8 +6656,11 @@
       <c r="C44" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>389</v>
       </c>
@@ -5360,8 +6670,11 @@
       <c r="C45" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>303</v>
       </c>
@@ -5371,8 +6684,11 @@
       <c r="C46" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>205</v>
       </c>
@@ -5382,8 +6698,11 @@
       <c r="C47" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>218</v>
       </c>
@@ -5393,8 +6712,11 @@
       <c r="C48" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>217</v>
       </c>
@@ -5404,8 +6726,11 @@
       <c r="C49" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>327</v>
       </c>
@@ -5415,8 +6740,11 @@
       <c r="C50" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>496.5</v>
       </c>
@@ -5426,8 +6754,11 @@
       <c r="C51" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>322</v>
       </c>
@@ -5437,8 +6768,11 @@
       <c r="C52" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>280</v>
       </c>
@@ -5448,8 +6782,11 @@
       <c r="C53" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>279</v>
       </c>
@@ -5459,8 +6796,11 @@
       <c r="C54" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>363</v>
       </c>
@@ -5470,8 +6810,11 @@
       <c r="C55" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>333</v>
       </c>
@@ -5481,8 +6824,11 @@
       <c r="C56" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>948</v>
       </c>
@@ -5492,8 +6838,11 @@
       <c r="C57" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>369</v>
       </c>
@@ -5503,8 +6852,11 @@
       <c r="C58" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>326.5</v>
       </c>
@@ -5514,8 +6866,11 @@
       <c r="C59" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>569.5</v>
       </c>
@@ -5525,8 +6880,11 @@
       <c r="C60" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>300.5</v>
       </c>
@@ -5536,8 +6894,11 @@
       <c r="C61" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>238</v>
       </c>
@@ -5547,8 +6908,11 @@
       <c r="C62" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>289</v>
       </c>
@@ -5558,8 +6922,11 @@
       <c r="C63" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>307.5</v>
       </c>
@@ -5569,8 +6936,11 @@
       <c r="C64" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>266.5</v>
       </c>
@@ -5580,8 +6950,11 @@
       <c r="C65" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>211.5</v>
       </c>
@@ -5591,8 +6964,11 @@
       <c r="C66" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>332.5</v>
       </c>
@@ -5602,8 +6978,11 @@
       <c r="C67" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>205</v>
       </c>
@@ -5613,8 +6992,11 @@
       <c r="C68" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>192</v>
       </c>
@@ -5624,8 +7006,11 @@
       <c r="C69" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>274.5</v>
       </c>
@@ -5635,8 +7020,11 @@
       <c r="C70" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>210.5</v>
       </c>
@@ -5646,8 +7034,11 @@
       <c r="C71" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>250.5</v>
       </c>
@@ -5657,8 +7048,11 @@
       <c r="C72" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>298.5</v>
       </c>
@@ -5668,8 +7062,11 @@
       <c r="C73" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>282</v>
       </c>
@@ -5679,8 +7076,11 @@
       <c r="C74" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>681</v>
       </c>
@@ -5690,8 +7090,11 @@
       <c r="C75" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>262</v>
       </c>
@@ -5701,8 +7104,11 @@
       <c r="C76" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>318</v>
       </c>
@@ -5712,8 +7118,11 @@
       <c r="C77" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>383.5</v>
       </c>
@@ -5723,8 +7132,11 @@
       <c r="C78" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>358.5</v>
       </c>
@@ -5734,8 +7146,11 @@
       <c r="C79" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>362</v>
       </c>
@@ -5745,8 +7160,11 @@
       <c r="C80" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>224.5</v>
       </c>
@@ -5756,8 +7174,11 @@
       <c r="C81" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>272</v>
       </c>
@@ -5767,8 +7188,11 @@
       <c r="C82" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>525.5</v>
       </c>
@@ -5778,8 +7202,11 @@
       <c r="C83" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>539.5</v>
       </c>
@@ -5789,8 +7216,11 @@
       <c r="C84" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>235</v>
       </c>
@@ -5800,8 +7230,11 @@
       <c r="C85" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>270</v>
       </c>
@@ -5811,8 +7244,11 @@
       <c r="C86" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>238</v>
       </c>
@@ -5822,8 +7258,11 @@
       <c r="C87" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>386.5</v>
       </c>
@@ -5833,8 +7272,11 @@
       <c r="C88" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>192</v>
       </c>
@@ -5844,8 +7286,11 @@
       <c r="C89" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>485.5</v>
       </c>
@@ -5855,8 +7300,11 @@
       <c r="C90" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>402</v>
       </c>
@@ -5866,8 +7314,11 @@
       <c r="C91" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>313.5</v>
       </c>
@@ -5877,8 +7328,11 @@
       <c r="C92" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>359.5</v>
       </c>
@@ -5888,8 +7342,11 @@
       <c r="C93" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>290</v>
       </c>
@@ -5899,9 +7356,12 @@
       <c r="C94" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="12">
+      <c r="D94" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="6">
         <v>216</v>
       </c>
       <c r="B95" s="11" t="s">
@@ -5910,9 +7370,12 @@
       <c r="C95" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="12">
+      <c r="D95" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="6">
         <v>235</v>
       </c>
       <c r="B96" s="11" t="s">
@@ -5921,8 +7384,11 @@
       <c r="C96" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>202.5</v>
       </c>
@@ -5932,8 +7398,11 @@
       <c r="C97" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>302.5</v>
       </c>
@@ -5943,8 +7412,11 @@
       <c r="C98" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>286.5</v>
       </c>
@@ -5954,8 +7426,11 @@
       <c r="C99" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>420</v>
       </c>
@@ -5965,8 +7440,11 @@
       <c r="C100" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>290.5</v>
       </c>
@@ -5976,8 +7454,11 @@
       <c r="C101" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>356.5</v>
       </c>
@@ -5987,8 +7468,11 @@
       <c r="C102" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>268</v>
       </c>
@@ -5998,8 +7482,11 @@
       <c r="C103" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>221</v>
       </c>
@@ -6009,8 +7496,11 @@
       <c r="C104" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>249</v>
       </c>
@@ -6020,8 +7510,11 @@
       <c r="C105" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>297</v>
       </c>
@@ -6031,8 +7524,11 @@
       <c r="C106" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>257.5</v>
       </c>
@@ -6042,8 +7538,11 @@
       <c r="C107" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>272</v>
       </c>
@@ -6053,8 +7552,11 @@
       <c r="C108" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>272.5</v>
       </c>
@@ -6064,8 +7566,11 @@
       <c r="C109" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>309</v>
       </c>
@@ -6075,8 +7580,11 @@
       <c r="C110" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>255</v>
       </c>
@@ -6086,8 +7594,11 @@
       <c r="C111" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>321.5</v>
       </c>
@@ -6097,8 +7608,11 @@
       <c r="C112" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>368</v>
       </c>
@@ -6108,8 +7622,11 @@
       <c r="C113" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>303</v>
       </c>
@@ -6119,8 +7636,11 @@
       <c r="C114" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>277.5</v>
       </c>
@@ -6130,8 +7650,11 @@
       <c r="C115" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>542.5</v>
       </c>
@@ -6141,8 +7664,11 @@
       <c r="C116" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>307.5</v>
       </c>
@@ -6152,8 +7678,11 @@
       <c r="C117" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>458.5</v>
       </c>
@@ -6163,8 +7692,11 @@
       <c r="C118" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>271</v>
       </c>
@@ -6174,8 +7706,11 @@
       <c r="C119" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>472.5</v>
       </c>
@@ -6185,8 +7720,11 @@
       <c r="C120" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>363</v>
       </c>
@@ -6196,8 +7734,11 @@
       <c r="C121" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>230</v>
       </c>
@@ -6207,8 +7748,11 @@
       <c r="C122" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>232.5</v>
       </c>
@@ -6218,8 +7762,11 @@
       <c r="C123" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>328</v>
       </c>
@@ -6229,8 +7776,11 @@
       <c r="C124" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>190</v>
       </c>
@@ -6240,8 +7790,11 @@
       <c r="C125" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>270</v>
       </c>
@@ -6251,8 +7804,11 @@
       <c r="C126" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>298.5</v>
       </c>
@@ -6262,8 +7818,11 @@
       <c r="C127" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>455</v>
       </c>
@@ -6273,8 +7832,11 @@
       <c r="C128" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>233</v>
       </c>
@@ -6284,8 +7846,11 @@
       <c r="C129" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>380</v>
       </c>
@@ -6295,8 +7860,11 @@
       <c r="C130" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>484</v>
       </c>
@@ -6306,8 +7874,11 @@
       <c r="C131" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>239.5</v>
       </c>
@@ -6317,8 +7888,11 @@
       <c r="C132" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>250.5</v>
       </c>
@@ -6328,8 +7902,11 @@
       <c r="C133" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>239</v>
       </c>
@@ -6339,8 +7916,11 @@
       <c r="C134" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>198.5</v>
       </c>
@@ -6350,8 +7930,11 @@
       <c r="C135" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>283</v>
       </c>
@@ -6361,8 +7944,11 @@
       <c r="C136" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>156</v>
       </c>
@@ -6372,8 +7958,11 @@
       <c r="C137" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>396</v>
       </c>
@@ -6383,8 +7972,11 @@
       <c r="C138" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>248</v>
       </c>
@@ -6394,8 +7986,11 @@
       <c r="C139" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D139" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>323.5</v>
       </c>
@@ -6405,8 +8000,11 @@
       <c r="C140" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>359</v>
       </c>
@@ -6416,8 +8014,11 @@
       <c r="C141" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>343.5</v>
       </c>
@@ -6427,8 +8028,11 @@
       <c r="C142" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>296</v>
       </c>
@@ -6438,8 +8042,11 @@
       <c r="C143" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D143" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>317</v>
       </c>
@@ -6449,8 +8056,11 @@
       <c r="C144" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D144" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>242.5</v>
       </c>
@@ -6460,8 +8070,11 @@
       <c r="C145" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D145" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>234.5</v>
       </c>
@@ -6471,8 +8084,11 @@
       <c r="C146" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D146" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>255</v>
       </c>
@@ -6482,8 +8098,11 @@
       <c r="C147" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>352</v>
       </c>
@@ -6493,8 +8112,11 @@
       <c r="C148" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D148" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>354.5</v>
       </c>
@@ -6504,8 +8126,11 @@
       <c r="C149" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D149" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>211</v>
       </c>
@@ -6515,8 +8140,11 @@
       <c r="C150" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D150" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>185.5</v>
       </c>
@@ -6526,8 +8154,11 @@
       <c r="C151" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D151" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>380.5</v>
       </c>
@@ -6537,8 +8168,11 @@
       <c r="C152" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D152" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>274.5</v>
       </c>
@@ -6548,8 +8182,11 @@
       <c r="C153" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D153" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>233</v>
       </c>
@@ -6559,8 +8196,11 @@
       <c r="C154" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D154" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>281</v>
       </c>
@@ -6570,8 +8210,11 @@
       <c r="C155" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D155" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>265.5</v>
       </c>
@@ -6581,8 +8224,11 @@
       <c r="C156" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D156" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>313</v>
       </c>
@@ -6592,8 +8238,11 @@
       <c r="C157" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D157" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>300</v>
       </c>
@@ -6603,8 +8252,11 @@
       <c r="C158" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D158" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>374.5</v>
       </c>
@@ -6614,8 +8266,11 @@
       <c r="C159" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D159" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>524</v>
       </c>
@@ -6625,8 +8280,11 @@
       <c r="C160" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D160" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>226</v>
       </c>
@@ -6636,8 +8294,11 @@
       <c r="C161" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <v>359.5</v>
       </c>
@@ -6647,8 +8308,11 @@
       <c r="C162" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D162" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>408.5</v>
       </c>
@@ -6658,8 +8322,11 @@
       <c r="C163" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D163" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>228.5</v>
       </c>
@@ -6669,8 +8336,11 @@
       <c r="C164" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D164" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <v>250.5</v>
       </c>
@@ -6680,8 +8350,11 @@
       <c r="C165" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D165" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <v>277.5</v>
       </c>
@@ -6691,8 +8364,11 @@
       <c r="C166" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D166" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>334</v>
       </c>
@@ -6702,8 +8378,11 @@
       <c r="C167" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D167" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>346.5</v>
       </c>
@@ -6713,8 +8392,11 @@
       <c r="C168" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D168" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
         <v>246</v>
       </c>
@@ -6724,8 +8406,11 @@
       <c r="C169" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D169" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>251.5</v>
       </c>
@@ -6735,8 +8420,11 @@
       <c r="C170" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D170" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>510</v>
       </c>
@@ -6746,8 +8434,11 @@
       <c r="C171" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D171" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="6">
         <v>345.5</v>
       </c>
@@ -6757,8 +8448,11 @@
       <c r="C172" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D172" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="6">
         <v>370</v>
       </c>
@@ -6768,8 +8462,11 @@
       <c r="C173" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D173" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="6">
         <v>286</v>
       </c>
@@ -6779,8 +8476,11 @@
       <c r="C174" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D174" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="6">
         <v>331</v>
       </c>
@@ -6790,8 +8490,11 @@
       <c r="C175" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D175" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="6">
         <v>288.5</v>
       </c>
@@ -6801,8 +8504,11 @@
       <c r="C176" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D176" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="6">
         <v>289.5</v>
       </c>
@@ -6812,8 +8518,11 @@
       <c r="C177" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D177" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="6">
         <v>257</v>
       </c>
@@ -6823,8 +8532,11 @@
       <c r="C178" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D178" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="6">
         <v>571.5</v>
       </c>
@@ -6834,8 +8546,11 @@
       <c r="C179" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D179" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="6">
         <v>340.5</v>
       </c>
@@ -6845,8 +8560,11 @@
       <c r="C180" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D180" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="6">
         <v>249.5</v>
       </c>
@@ -6856,8 +8574,11 @@
       <c r="C181" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D181" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="6">
         <v>311</v>
       </c>
@@ -6867,8 +8588,11 @@
       <c r="C182" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D182" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="6">
         <v>316.5</v>
       </c>
@@ -6878,8 +8602,11 @@
       <c r="C183" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D183" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="6">
         <v>401.5</v>
       </c>
@@ -6889,8 +8616,11 @@
       <c r="C184" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D184" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="6">
         <v>283.5</v>
       </c>
@@ -6900,8 +8630,11 @@
       <c r="C185" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D185" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="6">
         <v>329</v>
       </c>
@@ -6911,8 +8644,11 @@
       <c r="C186" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D186" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="6">
         <v>278.5</v>
       </c>
@@ -6922,8 +8658,11 @@
       <c r="C187" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D187" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="6">
         <v>436</v>
       </c>
@@ -6933,8 +8672,11 @@
       <c r="C188" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D188" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="6">
         <v>281</v>
       </c>
@@ -6944,8 +8686,11 @@
       <c r="C189" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D189" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="6">
         <v>275.5</v>
       </c>
@@ -6955,8 +8700,11 @@
       <c r="C190" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D190" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="6">
         <v>292.5</v>
       </c>
@@ -6966,8 +8714,11 @@
       <c r="C191" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D191" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="6">
         <v>215</v>
       </c>
@@ -6977,8 +8728,11 @@
       <c r="C192" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D192" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="6">
         <v>205.5</v>
       </c>
@@ -6988,8 +8742,11 @@
       <c r="C193" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D193" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="6">
         <v>229.5</v>
       </c>
@@ -6999,8 +8756,11 @@
       <c r="C194" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D194" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="6">
         <v>327</v>
       </c>
@@ -7010,8 +8770,11 @@
       <c r="C195" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D195" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="6">
         <v>490</v>
       </c>
@@ -7021,8 +8784,11 @@
       <c r="C196" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D196" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="6">
         <v>324.5</v>
       </c>
@@ -7032,8 +8798,11 @@
       <c r="C197" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D197" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="6">
         <v>341.5</v>
       </c>
@@ -7043,8 +8812,11 @@
       <c r="C198" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D198" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="6">
         <v>244.5</v>
       </c>
@@ -7054,8 +8826,11 @@
       <c r="C199" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D199" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="6">
         <v>169</v>
       </c>
@@ -7065,8 +8840,11 @@
       <c r="C200" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D200" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="6">
         <v>164</v>
       </c>
@@ -7076,8 +8854,11 @@
       <c r="C201" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D201" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="6">
         <v>199.5</v>
       </c>
@@ -7087,8 +8868,11 @@
       <c r="C202" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D202" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="6">
         <v>416</v>
       </c>
@@ -7098,8 +8882,11 @@
       <c r="C203" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D203" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="6">
         <v>398.5</v>
       </c>
@@ -7109,8 +8896,11 @@
       <c r="C204" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D204" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="6">
         <v>335</v>
       </c>
@@ -7120,8 +8910,11 @@
       <c r="C205" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D205" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="6">
         <v>360.5</v>
       </c>
@@ -7131,8 +8924,11 @@
       <c r="C206" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D206" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="6">
         <v>171.5</v>
       </c>
@@ -7142,8 +8938,11 @@
       <c r="C207" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D207" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="6">
         <v>448.5</v>
       </c>
@@ -7152,6 +8951,9 @@
       </c>
       <c r="C208" t="s">
         <v>217</v>
+      </c>
+      <c r="D208" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -7164,6 +8966,9 @@
       <c r="C209" t="s">
         <v>219</v>
       </c>
+      <c r="D209" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="6">
@@ -7175,6 +8980,9 @@
       <c r="C210" t="s">
         <v>218</v>
       </c>
+      <c r="D210" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="6">
@@ -7186,6 +8994,9 @@
       <c r="C211" t="s">
         <v>217</v>
       </c>
+      <c r="D211" t="s">
+        <v>626</v>
+      </c>
       <c r="I211" s="6"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -7198,6 +9009,9 @@
       <c r="C212" t="s">
         <v>217</v>
       </c>
+      <c r="D212" t="s">
+        <v>627</v>
+      </c>
       <c r="I212" s="6"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -7210,6 +9024,9 @@
       <c r="C213" t="s">
         <v>218</v>
       </c>
+      <c r="D213" t="s">
+        <v>628</v>
+      </c>
       <c r="I213" s="6"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -7222,6 +9039,9 @@
       <c r="C214" t="s">
         <v>219</v>
       </c>
+      <c r="D214" t="s">
+        <v>629</v>
+      </c>
       <c r="I214" s="6"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -7234,6 +9054,9 @@
       <c r="C215" t="s">
         <v>219</v>
       </c>
+      <c r="D215" t="s">
+        <v>630</v>
+      </c>
       <c r="I215" s="6"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -7246,6 +9069,9 @@
       <c r="C216" t="s">
         <v>218</v>
       </c>
+      <c r="D216" t="s">
+        <v>631</v>
+      </c>
       <c r="I216" s="6"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -7258,6 +9084,9 @@
       <c r="C217" t="s">
         <v>219</v>
       </c>
+      <c r="D217" t="s">
+        <v>632</v>
+      </c>
       <c r="I217" s="6"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -7270,6 +9099,9 @@
       <c r="C218" t="s">
         <v>218</v>
       </c>
+      <c r="D218" t="s">
+        <v>633</v>
+      </c>
       <c r="I218" s="6"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -7282,6 +9114,9 @@
       <c r="C219" t="s">
         <v>219</v>
       </c>
+      <c r="D219" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="6">
@@ -7293,6 +9128,9 @@
       <c r="C220" t="s">
         <v>216</v>
       </c>
+      <c r="D220" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="6">
@@ -7304,6 +9142,9 @@
       <c r="C221" t="s">
         <v>216</v>
       </c>
+      <c r="D221" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="6">
@@ -7315,6 +9156,9 @@
       <c r="C222" t="s">
         <v>218</v>
       </c>
+      <c r="D222" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="6">
@@ -7326,6 +9170,9 @@
       <c r="C223" t="s">
         <v>219</v>
       </c>
+      <c r="D223" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="6">
@@ -7337,8 +9184,11 @@
       <c r="C224" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D224" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="6">
         <v>236</v>
       </c>
@@ -7348,8 +9198,11 @@
       <c r="C225" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D225" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="6">
         <v>428</v>
       </c>
@@ -7359,8 +9212,11 @@
       <c r="C226" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D226" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="6">
         <v>398</v>
       </c>
@@ -7370,8 +9226,11 @@
       <c r="C227" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D227" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6">
         <v>385.5</v>
       </c>
@@ -7381,8 +9240,11 @@
       <c r="C228" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D228" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="6">
         <v>271</v>
       </c>
@@ -7392,8 +9254,11 @@
       <c r="C229" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D229" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="6">
         <v>447.5</v>
       </c>
@@ -7403,8 +9268,11 @@
       <c r="C230" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D230" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="6">
         <v>261.5</v>
       </c>
@@ -7414,8 +9282,11 @@
       <c r="C231" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D231" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="6">
         <v>274</v>
       </c>
@@ -7425,8 +9296,11 @@
       <c r="C232" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D232" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="6">
         <v>281</v>
       </c>
@@ -7436,8 +9310,11 @@
       <c r="C233" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D233" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="6">
         <v>268</v>
       </c>
@@ -7447,8 +9324,11 @@
       <c r="C234" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D234" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="6">
         <v>317</v>
       </c>
@@ -7458,8 +9338,11 @@
       <c r="C235" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D235" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="6">
         <v>219.5</v>
       </c>
@@ -7469,8 +9352,11 @@
       <c r="C236" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D236" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
         <v>271.5</v>
       </c>
@@ -7480,8 +9366,11 @@
       <c r="C237" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D237" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="6">
         <v>277</v>
       </c>
@@ -7491,8 +9380,11 @@
       <c r="C238" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D238" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="6">
         <v>249</v>
       </c>
@@ -7502,8 +9394,11 @@
       <c r="C239" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D239" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="6">
         <v>316</v>
       </c>
@@ -7513,8 +9408,11 @@
       <c r="C240" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D240" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
         <v>330.5</v>
       </c>
@@ -7524,8 +9422,11 @@
       <c r="C241" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D241" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="6">
         <v>252.5</v>
       </c>
@@ -7535,8 +9436,11 @@
       <c r="C242" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D242" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="6">
         <v>384.5</v>
       </c>
@@ -7546,8 +9450,11 @@
       <c r="C243" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D243" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="6">
         <v>553</v>
       </c>
@@ -7557,8 +9464,11 @@
       <c r="C244" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D244" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="6">
         <v>411</v>
       </c>
@@ -7568,8 +9478,11 @@
       <c r="C245" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D245" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="6">
         <v>354</v>
       </c>
@@ -7579,8 +9492,11 @@
       <c r="C246" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D246" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="6">
         <v>456</v>
       </c>
@@ -7590,8 +9506,11 @@
       <c r="C247" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D247" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="6">
         <v>190.5</v>
       </c>
@@ -7601,8 +9520,11 @@
       <c r="C248" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D248" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="6">
         <v>448.5</v>
       </c>
@@ -7612,8 +9534,11 @@
       <c r="C249" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D249" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="6">
         <v>355</v>
       </c>
@@ -7623,8 +9548,11 @@
       <c r="C250" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D250" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="6">
         <v>426.5</v>
       </c>
@@ -7634,8 +9562,11 @@
       <c r="C251" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D251" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="6">
         <v>288.5</v>
       </c>
@@ -7645,8 +9576,11 @@
       <c r="C252" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D252" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="6">
         <v>300</v>
       </c>
@@ -7656,8 +9590,11 @@
       <c r="C253" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D253" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="6">
         <v>305.5</v>
       </c>
@@ -7667,8 +9604,11 @@
       <c r="C254" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D254" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="6">
         <v>374.5</v>
       </c>
@@ -7678,8 +9618,11 @@
       <c r="C255" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D255" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="6">
         <v>217</v>
       </c>
@@ -7689,8 +9632,11 @@
       <c r="C256" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D256" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="6">
         <v>283.5</v>
       </c>
@@ -7700,8 +9646,11 @@
       <c r="C257" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D257" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="6">
         <v>381.5</v>
       </c>
@@ -7711,8 +9660,11 @@
       <c r="C258" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D258" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="6">
         <v>233</v>
       </c>
@@ -7722,8 +9674,11 @@
       <c r="C259" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D259" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="6">
         <v>185.5</v>
       </c>
@@ -7733,8 +9688,11 @@
       <c r="C260" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D260" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="6">
         <v>301</v>
       </c>
@@ -7744,8 +9702,11 @@
       <c r="C261" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D261" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="6">
         <v>358.5</v>
       </c>
@@ -7755,8 +9716,11 @@
       <c r="C262" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D262" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="6">
         <v>207</v>
       </c>
@@ -7766,8 +9730,11 @@
       <c r="C263" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D263" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="6">
         <v>358</v>
       </c>
@@ -7777,8 +9744,11 @@
       <c r="C264" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D264" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="6">
         <v>469.5</v>
       </c>
@@ -7788,8 +9758,11 @@
       <c r="C265" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D265" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="6">
         <v>404.5</v>
       </c>
@@ -7799,8 +9772,11 @@
       <c r="C266" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D266" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="6">
         <v>497.5</v>
       </c>
@@ -7810,8 +9786,11 @@
       <c r="C267" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D267" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="6">
         <v>390.5</v>
       </c>
@@ -7821,8 +9800,11 @@
       <c r="C268" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D268" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="6">
         <v>501.49999999999994</v>
       </c>
@@ -7832,8 +9814,11 @@
       <c r="C269" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D269" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="6">
         <v>333.5</v>
       </c>
@@ -7843,8 +9828,11 @@
       <c r="C270" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D270" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="6">
         <v>426</v>
       </c>
@@ -7854,8 +9842,11 @@
       <c r="C271" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D271" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6">
         <v>232</v>
       </c>
@@ -7865,8 +9856,11 @@
       <c r="C272" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D272" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="6">
         <v>268.5</v>
       </c>
@@ -7876,8 +9870,11 @@
       <c r="C273" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D273" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="6">
         <v>378.5</v>
       </c>
@@ -7887,8 +9884,11 @@
       <c r="C274" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D274" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="6">
         <v>296</v>
       </c>
@@ -7898,8 +9898,11 @@
       <c r="C275" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D275" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="6">
         <v>387</v>
       </c>
@@ -7909,8 +9912,11 @@
       <c r="C276" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D276" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="6">
         <v>487</v>
       </c>
@@ -7920,8 +9926,11 @@
       <c r="C277" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D277" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="6">
         <v>366</v>
       </c>
@@ -7931,8 +9940,11 @@
       <c r="C278" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D278" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="6">
         <v>482</v>
       </c>
@@ -7942,8 +9954,11 @@
       <c r="C279" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D279" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="6">
         <v>255</v>
       </c>
@@ -7953,8 +9968,11 @@
       <c r="C280" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D280" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="6">
         <v>513</v>
       </c>
@@ -7964,8 +9982,11 @@
       <c r="C281" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D281" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="6">
         <v>521</v>
       </c>
@@ -7975,8 +9996,11 @@
       <c r="C282" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D282" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="6">
         <v>323</v>
       </c>
@@ -7986,8 +10010,11 @@
       <c r="C283" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D283" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="6">
         <v>245.5</v>
       </c>
@@ -7997,8 +10024,11 @@
       <c r="C284" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D284" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="6">
         <v>325.5</v>
       </c>
@@ -8008,8 +10038,11 @@
       <c r="C285" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D285" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="6">
         <v>368.5</v>
       </c>
@@ -8019,8 +10052,11 @@
       <c r="C286" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D286" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="6">
         <v>332</v>
       </c>
@@ -8030,8 +10066,11 @@
       <c r="C287" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D287" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="6">
         <v>353.5</v>
       </c>
@@ -8041,8 +10080,11 @@
       <c r="C288" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D288" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="6">
         <v>281.5</v>
       </c>
@@ -8052,8 +10094,11 @@
       <c r="C289" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D289" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="6">
         <v>333</v>
       </c>
@@ -8063,8 +10108,11 @@
       <c r="C290" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D290" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="6">
         <v>451</v>
       </c>
@@ -8074,8 +10122,11 @@
       <c r="C291" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D291" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="6">
         <v>288.5</v>
       </c>
@@ -8085,8 +10136,11 @@
       <c r="C292" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D292" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="6">
         <v>269</v>
       </c>
@@ -8096,8 +10150,11 @@
       <c r="C293" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D293" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="6">
         <v>400.5</v>
       </c>
@@ -8107,8 +10164,11 @@
       <c r="C294" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D294" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6">
         <v>390</v>
       </c>
@@ -8118,8 +10178,11 @@
       <c r="C295" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D295" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="6">
         <v>332</v>
       </c>
@@ -8129,8 +10192,11 @@
       <c r="C296" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D296" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="6">
         <v>222</v>
       </c>
@@ -8140,8 +10206,11 @@
       <c r="C297" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D297" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="6">
         <v>353.5</v>
       </c>
@@ -8151,8 +10220,11 @@
       <c r="C298" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D298" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="6">
         <v>380</v>
       </c>
@@ -8162,8 +10234,11 @@
       <c r="C299" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D299" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="6">
         <v>277</v>
       </c>
@@ -8173,8 +10248,11 @@
       <c r="C300" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D300" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="6">
         <v>384.5</v>
       </c>
@@ -8184,8 +10262,11 @@
       <c r="C301" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D301" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="6">
         <v>257.5</v>
       </c>
@@ -8195,8 +10276,11 @@
       <c r="C302" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D302" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="6">
         <v>194.5</v>
       </c>
@@ -8206,8 +10290,11 @@
       <c r="C303" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D303" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="6">
         <v>317.5</v>
       </c>
@@ -8216,6 +10303,9 @@
       </c>
       <c r="C304" t="s">
         <v>217</v>
+      </c>
+      <c r="D304" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
@@ -8228,6 +10318,9 @@
       <c r="C305" t="s">
         <v>219</v>
       </c>
+      <c r="D305" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="6">
@@ -8239,6 +10332,9 @@
       <c r="C306" t="s">
         <v>216</v>
       </c>
+      <c r="D306" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="6">
@@ -8250,6 +10346,9 @@
       <c r="C307" t="s">
         <v>216</v>
       </c>
+      <c r="D307" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="6">
@@ -8261,6 +10360,9 @@
       <c r="C308" t="s">
         <v>216</v>
       </c>
+      <c r="D308" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="6">
@@ -8272,6 +10374,9 @@
       <c r="C309" t="s">
         <v>217</v>
       </c>
+      <c r="D309" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="6">
@@ -8283,6 +10388,9 @@
       <c r="C310" t="s">
         <v>218</v>
       </c>
+      <c r="D310" t="s">
+        <v>725</v>
+      </c>
       <c r="H310" s="6"/>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
@@ -8295,6 +10403,9 @@
       <c r="C311" t="s">
         <v>218</v>
       </c>
+      <c r="D311" t="s">
+        <v>726</v>
+      </c>
       <c r="H311" s="6"/>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
@@ -8307,6 +10418,9 @@
       <c r="C312" t="s">
         <v>217</v>
       </c>
+      <c r="D312" t="s">
+        <v>727</v>
+      </c>
       <c r="H312" s="6"/>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
@@ -8319,6 +10433,9 @@
       <c r="C313" t="s">
         <v>219</v>
       </c>
+      <c r="D313" t="s">
+        <v>728</v>
+      </c>
       <c r="H313" s="6"/>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
@@ -8331,6 +10448,9 @@
       <c r="C314" t="s">
         <v>216</v>
       </c>
+      <c r="D314" t="s">
+        <v>729</v>
+      </c>
       <c r="H314" s="6"/>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
@@ -8343,6 +10463,9 @@
       <c r="C315" t="s">
         <v>216</v>
       </c>
+      <c r="D315" t="s">
+        <v>730</v>
+      </c>
       <c r="H315" s="6"/>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
@@ -8355,6 +10478,9 @@
       <c r="C316" t="s">
         <v>218</v>
       </c>
+      <c r="D316" t="s">
+        <v>731</v>
+      </c>
       <c r="H316" s="6"/>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
@@ -8367,6 +10493,9 @@
       <c r="C317" t="s">
         <v>218</v>
       </c>
+      <c r="D317" t="s">
+        <v>732</v>
+      </c>
       <c r="H317" s="6"/>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
@@ -8379,6 +10508,9 @@
       <c r="C318" t="s">
         <v>218</v>
       </c>
+      <c r="D318" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="6">
@@ -8390,6 +10522,9 @@
       <c r="C319" t="s">
         <v>216</v>
       </c>
+      <c r="D319" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="6">
@@ -8401,8 +10536,11 @@
       <c r="C320" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D320" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="6">
         <v>588.5</v>
       </c>
@@ -8412,8 +10550,11 @@
       <c r="C321" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D321" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="6">
         <v>255.5</v>
       </c>
@@ -8423,8 +10564,11 @@
       <c r="C322" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D322" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="6">
         <v>265.5</v>
       </c>
@@ -8434,8 +10578,11 @@
       <c r="C323" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D323" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="6">
         <v>297</v>
       </c>
@@ -8445,8 +10592,11 @@
       <c r="C324" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D324" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="6">
         <v>390.5</v>
       </c>
@@ -8456,8 +10606,11 @@
       <c r="C325" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D325" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="6">
         <v>468</v>
       </c>
@@ -8467,8 +10620,11 @@
       <c r="C326" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D326" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="6">
         <v>203.5</v>
       </c>
@@ -8478,8 +10634,11 @@
       <c r="C327" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D327" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="6">
         <v>304</v>
       </c>
@@ -8489,8 +10648,11 @@
       <c r="C328" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D328" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="6">
         <v>391</v>
       </c>
@@ -8500,8 +10662,11 @@
       <c r="C329" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D329" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="6">
         <v>289</v>
       </c>
@@ -8511,8 +10676,11 @@
       <c r="C330" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D330" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="6">
         <v>336.5</v>
       </c>
@@ -8522,8 +10690,11 @@
       <c r="C331" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D331" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="6">
         <v>212.5</v>
       </c>
@@ -8533,8 +10704,11 @@
       <c r="C332" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D332" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="6">
         <v>252.5</v>
       </c>
@@ -8544,8 +10718,11 @@
       <c r="C333" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D333" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="6">
         <v>310</v>
       </c>
@@ -8555,8 +10732,11 @@
       <c r="C334" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D334" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="6">
         <v>440</v>
       </c>
@@ -8566,8 +10746,11 @@
       <c r="C335" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D335" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="6">
         <v>262.5</v>
       </c>
@@ -8577,8 +10760,11 @@
       <c r="C336" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D336" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="6">
         <v>402</v>
       </c>
@@ -8588,8 +10774,11 @@
       <c r="C337" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D337" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="6">
         <v>296</v>
       </c>
@@ -8599,8 +10788,11 @@
       <c r="C338" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D338" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="6">
         <v>347</v>
       </c>
@@ -8610,8 +10802,11 @@
       <c r="C339" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D339" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="6">
         <v>300</v>
       </c>
@@ -8621,8 +10816,11 @@
       <c r="C340" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D340" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="6">
         <v>452</v>
       </c>
@@ -8632,8 +10830,11 @@
       <c r="C341" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D341" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="6">
         <v>300.5</v>
       </c>
@@ -8643,8 +10844,11 @@
       <c r="C342" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D342" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="6">
         <v>281</v>
       </c>
@@ -8654,8 +10858,11 @@
       <c r="C343" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D343" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="6">
         <v>237.5</v>
       </c>
@@ -8665,8 +10872,11 @@
       <c r="C344" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D344" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="6">
         <v>179.5</v>
       </c>
@@ -8676,8 +10886,11 @@
       <c r="C345" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D345" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="6">
         <v>235</v>
       </c>
@@ -8687,8 +10900,11 @@
       <c r="C346" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D346" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="6">
         <v>326.5</v>
       </c>
@@ -8698,8 +10914,11 @@
       <c r="C347" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D347" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="6">
         <v>354</v>
       </c>
@@ -8709,8 +10928,11 @@
       <c r="C348" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D348" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="6">
         <v>257</v>
       </c>
@@ -8720,8 +10942,11 @@
       <c r="C349" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D349" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="6">
         <v>184</v>
       </c>
@@ -8731,8 +10956,11 @@
       <c r="C350" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D350" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="6">
         <v>320</v>
       </c>
@@ -8742,8 +10970,11 @@
       <c r="C351" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D351" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="6">
         <v>242.5</v>
       </c>
@@ -8753,8 +10984,11 @@
       <c r="C352" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D352" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="6">
         <v>328</v>
       </c>
@@ -8764,8 +10998,11 @@
       <c r="C353" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D353" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="6">
         <v>267.5</v>
       </c>
@@ -8775,8 +11012,11 @@
       <c r="C354" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D354" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="6">
         <v>219</v>
       </c>
@@ -8786,8 +11026,11 @@
       <c r="C355" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D355" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="6">
         <v>240</v>
       </c>
@@ -8797,8 +11040,11 @@
       <c r="C356" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D356" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="6">
         <v>271.5</v>
       </c>
@@ -8808,8 +11054,11 @@
       <c r="C357" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D357" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="6">
         <v>431</v>
       </c>
@@ -8819,8 +11068,11 @@
       <c r="C358" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D358" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="6">
         <v>296</v>
       </c>
@@ -8830,8 +11082,11 @@
       <c r="C359" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D359" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="6">
         <v>220</v>
       </c>
@@ -8841,8 +11096,11 @@
       <c r="C360" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D360" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="6">
         <v>387.5</v>
       </c>
@@ -8852,8 +11110,11 @@
       <c r="C361" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D361" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="6">
         <v>381</v>
       </c>
@@ -8863,8 +11124,11 @@
       <c r="C362" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D362" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="6">
         <v>500</v>
       </c>
@@ -8874,8 +11138,11 @@
       <c r="C363" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D363" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="6">
         <v>313.5</v>
       </c>
@@ -8885,8 +11152,11 @@
       <c r="C364" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D364" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="6">
         <v>350.5</v>
       </c>
@@ -8896,8 +11166,11 @@
       <c r="C365" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D365" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="6">
         <v>423.5</v>
       </c>
@@ -8907,8 +11180,11 @@
       <c r="C366" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D366" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="6">
         <v>429.5</v>
       </c>
@@ -8918,8 +11194,11 @@
       <c r="C367" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D367" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="6">
         <v>349</v>
       </c>
@@ -8928,6 +11207,9 @@
       </c>
       <c r="C368" t="s">
         <v>218</v>
+      </c>
+      <c r="D368" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
@@ -8940,6 +11222,9 @@
       <c r="C369" t="s">
         <v>218</v>
       </c>
+      <c r="D369" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="6">
@@ -8951,6 +11236,9 @@
       <c r="C370" t="s">
         <v>219</v>
       </c>
+      <c r="D370" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="6">
@@ -8962,6 +11250,9 @@
       <c r="C371" t="s">
         <v>218</v>
       </c>
+      <c r="D371" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" s="6">
@@ -8973,6 +11264,9 @@
       <c r="C372" t="s">
         <v>216</v>
       </c>
+      <c r="D372" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="6">
@@ -8984,6 +11278,9 @@
       <c r="C373" t="s">
         <v>217</v>
       </c>
+      <c r="D373" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="6">
@@ -8995,6 +11292,9 @@
       <c r="C374" t="s">
         <v>218</v>
       </c>
+      <c r="D374" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="6">
@@ -9006,6 +11306,9 @@
       <c r="C375" t="s">
         <v>217</v>
       </c>
+      <c r="D375" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="6">
@@ -9017,6 +11320,9 @@
       <c r="C376" t="s">
         <v>219</v>
       </c>
+      <c r="D376" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" s="6">
@@ -9028,6 +11334,9 @@
       <c r="C377" t="s">
         <v>219</v>
       </c>
+      <c r="D377" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="6">
@@ -9039,6 +11348,9 @@
       <c r="C378" t="s">
         <v>216</v>
       </c>
+      <c r="D378" t="s">
+        <v>793</v>
+      </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="6">
@@ -9050,6 +11362,9 @@
       <c r="C379" t="s">
         <v>216</v>
       </c>
+      <c r="D379" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="6">
@@ -9061,6 +11376,9 @@
       <c r="C380" t="s">
         <v>217</v>
       </c>
+      <c r="D380" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" s="6">
@@ -9072,6 +11390,9 @@
       <c r="C381" t="s">
         <v>217</v>
       </c>
+      <c r="D381" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" s="6">
@@ -9083,6 +11404,9 @@
       <c r="C382" t="s">
         <v>219</v>
       </c>
+      <c r="D382" t="s">
+        <v>797</v>
+      </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="6">
@@ -9094,6 +11418,9 @@
       <c r="C383" t="s">
         <v>219</v>
       </c>
+      <c r="D383" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" s="6">
@@ -9105,6 +11432,9 @@
       <c r="C384" t="s">
         <v>216</v>
       </c>
+      <c r="D384" t="s">
+        <v>799</v>
+      </c>
       <c r="H384" s="6"/>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
@@ -9117,6 +11447,9 @@
       <c r="C385" t="s">
         <v>217</v>
       </c>
+      <c r="D385" t="s">
+        <v>800</v>
+      </c>
       <c r="H385" s="6"/>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
@@ -9129,6 +11462,9 @@
       <c r="C386" t="s">
         <v>216</v>
       </c>
+      <c r="D386" t="s">
+        <v>801</v>
+      </c>
       <c r="H386" s="6"/>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
@@ -9141,6 +11477,9 @@
       <c r="C387" t="s">
         <v>216</v>
       </c>
+      <c r="D387" t="s">
+        <v>802</v>
+      </c>
       <c r="H387" s="6"/>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.3">
@@ -9153,6 +11492,9 @@
       <c r="C388" t="s">
         <v>216</v>
       </c>
+      <c r="D388" t="s">
+        <v>803</v>
+      </c>
       <c r="H388" s="6"/>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
@@ -9165,6 +11507,9 @@
       <c r="C389" t="s">
         <v>217</v>
       </c>
+      <c r="D389" t="s">
+        <v>804</v>
+      </c>
       <c r="H389" s="6"/>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.3">
@@ -9177,6 +11522,9 @@
       <c r="C390" t="s">
         <v>218</v>
       </c>
+      <c r="D390" t="s">
+        <v>805</v>
+      </c>
       <c r="H390" s="6"/>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
@@ -9189,6 +11537,9 @@
       <c r="C391" t="s">
         <v>218</v>
       </c>
+      <c r="D391" t="s">
+        <v>806</v>
+      </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" s="6">
@@ -9200,6 +11551,9 @@
       <c r="C392" t="s">
         <v>218</v>
       </c>
+      <c r="D392" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" s="6">
@@ -9211,6 +11565,9 @@
       <c r="C393" t="s">
         <v>218</v>
       </c>
+      <c r="D393" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" s="6">
@@ -9222,6 +11579,9 @@
       <c r="C394" t="s">
         <v>218</v>
       </c>
+      <c r="D394" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" s="6">
@@ -9232,6 +11592,9 @@
       </c>
       <c r="C395" t="s">
         <v>218</v>
+      </c>
+      <c r="D395" t="s">
+        <v>810</v>
       </c>
     </row>
   </sheetData>

--- a/KLK6_ELISA_data_correct_for_dilution.xlsx
+++ b/KLK6_ELISA_data_correct_for_dilution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/miyo_chatanaka_mail_utoronto_ca/Documents/University/University of Toronto/Diamandis Lab/Analyses/People Analyses/Miyo/2025/KLK6 assay/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyoh\Git_Hub_Work\Python_KLK6_data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="11_58BF3834AC52AC87F8183A171ADFBF1AF86F5DB7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96112A30-869F-4323-9B7A-6879997C1915}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62071B0-D60E-49A2-A88B-822D5C89389E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
@@ -688,12 +688,6 @@
     <t>Group</t>
   </si>
   <si>
-    <t>MCI_nonProgressor</t>
-  </si>
-  <si>
-    <t>MCI_conver_toDem</t>
-  </si>
-  <si>
     <t>SCD</t>
   </si>
   <si>
@@ -2471,6 +2465,12 @@
   </si>
   <si>
     <t>CC000846.04</t>
+  </si>
+  <si>
+    <t>MCI Progressor</t>
+  </si>
+  <si>
+    <t>MCI non Progressor</t>
   </si>
 </sst>
 </file>
@@ -2880,7 +2880,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -6030,7 +6030,7 @@
   <dimension ref="A1:Q395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6041,7 +6041,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="6"/>
@@ -6056,7 +6056,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -6065,7 +6065,7 @@
         <v>215</v>
       </c>
       <c r="D2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I2" s="6"/>
       <c r="L2" s="6"/>
@@ -6080,10 +6080,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,10 +6094,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,10 +6108,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,10 +6122,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,10 +6136,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,10 +6150,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,10 +6164,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,10 +6178,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,10 +6192,10 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6206,10 +6206,10 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,10 +6220,10 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,10 +6234,10 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6248,10 +6248,10 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,10 +6262,10 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D16" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -6276,10 +6276,10 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -6290,10 +6290,10 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -6304,10 +6304,10 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D19" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -6318,10 +6318,10 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D20" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -6332,10 +6332,10 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -6346,10 +6346,10 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D22" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -6360,10 +6360,10 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D23" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -6374,10 +6374,10 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -6388,10 +6388,10 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D25" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -6402,10 +6402,10 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D26" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -6416,10 +6416,10 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D27" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -6430,10 +6430,10 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D28" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -6444,10 +6444,10 @@
         <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D29" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -6458,10 +6458,10 @@
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D30" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -6472,10 +6472,10 @@
         <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D31" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -6486,10 +6486,10 @@
         <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D32" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -6500,10 +6500,10 @@
         <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D33" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -6514,10 +6514,10 @@
         <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D34" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -6528,10 +6528,10 @@
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D35" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -6542,10 +6542,10 @@
         <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D36" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -6556,10 +6556,10 @@
         <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D37" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -6570,10 +6570,10 @@
         <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D38" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -6584,10 +6584,10 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D39" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -6598,10 +6598,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D40" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -6612,10 +6612,10 @@
         <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D41" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -6626,10 +6626,10 @@
         <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D42" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -6640,10 +6640,10 @@
         <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D43" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -6654,10 +6654,10 @@
         <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D44" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -6668,10 +6668,10 @@
         <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D45" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -6682,10 +6682,10 @@
         <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D46" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -6696,10 +6696,10 @@
         <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D47" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -6710,10 +6710,10 @@
         <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D48" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -6724,10 +6724,10 @@
         <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D49" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -6738,10 +6738,10 @@
         <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D50" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -6752,10 +6752,10 @@
         <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D51" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -6766,10 +6766,10 @@
         <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D52" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -6780,10 +6780,10 @@
         <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D53" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -6794,10 +6794,10 @@
         <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D54" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -6808,10 +6808,10 @@
         <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D55" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -6822,10 +6822,10 @@
         <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D56" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -6836,10 +6836,10 @@
         <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D57" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -6850,10 +6850,10 @@
         <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D58" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -6864,10 +6864,10 @@
         <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D59" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -6878,10 +6878,10 @@
         <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D60" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -6892,10 +6892,10 @@
         <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -6906,10 +6906,10 @@
         <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D62" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -6920,10 +6920,10 @@
         <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D63" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -6934,10 +6934,10 @@
         <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D64" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -6948,10 +6948,10 @@
         <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D65" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -6962,10 +6962,10 @@
         <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D66" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -6976,10 +6976,10 @@
         <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D67" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -6990,10 +6990,10 @@
         <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D68" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -7004,10 +7004,10 @@
         <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D69" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -7018,10 +7018,10 @@
         <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D70" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -7032,10 +7032,10 @@
         <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D71" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -7046,10 +7046,10 @@
         <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D72" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -7060,10 +7060,10 @@
         <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D73" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -7074,10 +7074,10 @@
         <v>86</v>
       </c>
       <c r="C74" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D74" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -7088,10 +7088,10 @@
         <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D75" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -7102,10 +7102,10 @@
         <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D76" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -7116,10 +7116,10 @@
         <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D77" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -7130,10 +7130,10 @@
         <v>90</v>
       </c>
       <c r="C78" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D78" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -7144,10 +7144,10 @@
         <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D79" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -7158,10 +7158,10 @@
         <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D80" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -7172,10 +7172,10 @@
         <v>93</v>
       </c>
       <c r="C81" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D81" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -7186,10 +7186,10 @@
         <v>94</v>
       </c>
       <c r="C82" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D82" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -7200,10 +7200,10 @@
         <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D83" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -7214,10 +7214,10 @@
         <v>96</v>
       </c>
       <c r="C84" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D84" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -7228,10 +7228,10 @@
         <v>97</v>
       </c>
       <c r="C85" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D85" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -7242,10 +7242,10 @@
         <v>98</v>
       </c>
       <c r="C86" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D86" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -7256,10 +7256,10 @@
         <v>99</v>
       </c>
       <c r="C87" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D87" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -7270,10 +7270,10 @@
         <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D88" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -7284,10 +7284,10 @@
         <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D89" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -7298,10 +7298,10 @@
         <v>102</v>
       </c>
       <c r="C90" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D90" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -7312,10 +7312,10 @@
         <v>103</v>
       </c>
       <c r="C91" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D91" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -7326,10 +7326,10 @@
         <v>104</v>
       </c>
       <c r="C92" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D92" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -7340,10 +7340,10 @@
         <v>105</v>
       </c>
       <c r="C93" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D93" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -7354,10 +7354,10 @@
         <v>106</v>
       </c>
       <c r="C94" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D94" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -7368,10 +7368,10 @@
         <v>107</v>
       </c>
       <c r="C95" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D95" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -7382,10 +7382,10 @@
         <v>108</v>
       </c>
       <c r="C96" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D96" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -7396,10 +7396,10 @@
         <v>109</v>
       </c>
       <c r="C97" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D97" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -7410,10 +7410,10 @@
         <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D98" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -7424,10 +7424,10 @@
         <v>111</v>
       </c>
       <c r="C99" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D99" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -7438,10 +7438,10 @@
         <v>112</v>
       </c>
       <c r="C100" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D100" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -7452,10 +7452,10 @@
         <v>113</v>
       </c>
       <c r="C101" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D101" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -7466,10 +7466,10 @@
         <v>114</v>
       </c>
       <c r="C102" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D102" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -7480,10 +7480,10 @@
         <v>115</v>
       </c>
       <c r="C103" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D103" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -7494,10 +7494,10 @@
         <v>116</v>
       </c>
       <c r="C104" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D104" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -7508,10 +7508,10 @@
         <v>117</v>
       </c>
       <c r="C105" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D105" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -7522,10 +7522,10 @@
         <v>118</v>
       </c>
       <c r="C106" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D106" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -7536,10 +7536,10 @@
         <v>119</v>
       </c>
       <c r="C107" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D107" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -7550,10 +7550,10 @@
         <v>120</v>
       </c>
       <c r="C108" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D108" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -7564,10 +7564,10 @@
         <v>121</v>
       </c>
       <c r="C109" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D109" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -7578,10 +7578,10 @@
         <v>122</v>
       </c>
       <c r="C110" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D110" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -7592,10 +7592,10 @@
         <v>123</v>
       </c>
       <c r="C111" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D111" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -7606,10 +7606,10 @@
         <v>124</v>
       </c>
       <c r="C112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D112" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -7620,10 +7620,10 @@
         <v>125</v>
       </c>
       <c r="C113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D113" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -7634,10 +7634,10 @@
         <v>126</v>
       </c>
       <c r="C114" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D114" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -7648,10 +7648,10 @@
         <v>127</v>
       </c>
       <c r="C115" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D115" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -7662,10 +7662,10 @@
         <v>128</v>
       </c>
       <c r="C116" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D116" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -7676,10 +7676,10 @@
         <v>129</v>
       </c>
       <c r="C117" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D117" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -7690,10 +7690,10 @@
         <v>130</v>
       </c>
       <c r="C118" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D118" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -7704,10 +7704,10 @@
         <v>131</v>
       </c>
       <c r="C119" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D119" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -7718,10 +7718,10 @@
         <v>132</v>
       </c>
       <c r="C120" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D120" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -7732,10 +7732,10 @@
         <v>133</v>
       </c>
       <c r="C121" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D121" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -7746,10 +7746,10 @@
         <v>134</v>
       </c>
       <c r="C122" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D122" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -7760,10 +7760,10 @@
         <v>135</v>
       </c>
       <c r="C123" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D123" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -7774,10 +7774,10 @@
         <v>136</v>
       </c>
       <c r="C124" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D124" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -7788,10 +7788,10 @@
         <v>137</v>
       </c>
       <c r="C125" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D125" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -7802,10 +7802,10 @@
         <v>138</v>
       </c>
       <c r="C126" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D126" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -7816,10 +7816,10 @@
         <v>139</v>
       </c>
       <c r="C127" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D127" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -7830,10 +7830,10 @@
         <v>140</v>
       </c>
       <c r="C128" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D128" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -7844,10 +7844,10 @@
         <v>141</v>
       </c>
       <c r="C129" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D129" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -7858,10 +7858,10 @@
         <v>142</v>
       </c>
       <c r="C130" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D130" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -7872,10 +7872,10 @@
         <v>143</v>
       </c>
       <c r="C131" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D131" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -7886,10 +7886,10 @@
         <v>144</v>
       </c>
       <c r="C132" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D132" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -7900,10 +7900,10 @@
         <v>145</v>
       </c>
       <c r="C133" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D133" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -7914,10 +7914,10 @@
         <v>146</v>
       </c>
       <c r="C134" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D134" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -7928,10 +7928,10 @@
         <v>147</v>
       </c>
       <c r="C135" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D135" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -7942,10 +7942,10 @@
         <v>148</v>
       </c>
       <c r="C136" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D136" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -7956,10 +7956,10 @@
         <v>149</v>
       </c>
       <c r="C137" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D137" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -7970,10 +7970,10 @@
         <v>150</v>
       </c>
       <c r="C138" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D138" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -7984,10 +7984,10 @@
         <v>151</v>
       </c>
       <c r="C139" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D139" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -7998,10 +7998,10 @@
         <v>152</v>
       </c>
       <c r="C140" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D140" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -8012,10 +8012,10 @@
         <v>153</v>
       </c>
       <c r="C141" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D141" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -8026,10 +8026,10 @@
         <v>154</v>
       </c>
       <c r="C142" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D142" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -8040,10 +8040,10 @@
         <v>155</v>
       </c>
       <c r="C143" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D143" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -8054,10 +8054,10 @@
         <v>156</v>
       </c>
       <c r="C144" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D144" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -8068,10 +8068,10 @@
         <v>157</v>
       </c>
       <c r="C145" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D145" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -8082,10 +8082,10 @@
         <v>158</v>
       </c>
       <c r="C146" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D146" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -8096,10 +8096,10 @@
         <v>159</v>
       </c>
       <c r="C147" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D147" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -8110,10 +8110,10 @@
         <v>160</v>
       </c>
       <c r="C148" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D148" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -8124,10 +8124,10 @@
         <v>161</v>
       </c>
       <c r="C149" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D149" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -8138,10 +8138,10 @@
         <v>162</v>
       </c>
       <c r="C150" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D150" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -8152,10 +8152,10 @@
         <v>163</v>
       </c>
       <c r="C151" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D151" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -8166,10 +8166,10 @@
         <v>164</v>
       </c>
       <c r="C152" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D152" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -8180,10 +8180,10 @@
         <v>165</v>
       </c>
       <c r="C153" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D153" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -8194,10 +8194,10 @@
         <v>166</v>
       </c>
       <c r="C154" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D154" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -8208,10 +8208,10 @@
         <v>167</v>
       </c>
       <c r="C155" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D155" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -8222,10 +8222,10 @@
         <v>168</v>
       </c>
       <c r="C156" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D156" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -8236,10 +8236,10 @@
         <v>169</v>
       </c>
       <c r="C157" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D157" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -8250,10 +8250,10 @@
         <v>170</v>
       </c>
       <c r="C158" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D158" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -8264,10 +8264,10 @@
         <v>171</v>
       </c>
       <c r="C159" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D159" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -8278,10 +8278,10 @@
         <v>172</v>
       </c>
       <c r="C160" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D160" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -8292,10 +8292,10 @@
         <v>173</v>
       </c>
       <c r="C161" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D161" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -8306,10 +8306,10 @@
         <v>174</v>
       </c>
       <c r="C162" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D162" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -8320,10 +8320,10 @@
         <v>175</v>
       </c>
       <c r="C163" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D163" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -8334,10 +8334,10 @@
         <v>176</v>
       </c>
       <c r="C164" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D164" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -8348,10 +8348,10 @@
         <v>177</v>
       </c>
       <c r="C165" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D165" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -8362,10 +8362,10 @@
         <v>178</v>
       </c>
       <c r="C166" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D166" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -8376,10 +8376,10 @@
         <v>179</v>
       </c>
       <c r="C167" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D167" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -8390,10 +8390,10 @@
         <v>180</v>
       </c>
       <c r="C168" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D168" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -8404,10 +8404,10 @@
         <v>181</v>
       </c>
       <c r="C169" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D169" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -8418,10 +8418,10 @@
         <v>182</v>
       </c>
       <c r="C170" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D170" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -8432,10 +8432,10 @@
         <v>183</v>
       </c>
       <c r="C171" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D171" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -8446,10 +8446,10 @@
         <v>184</v>
       </c>
       <c r="C172" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D172" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -8460,10 +8460,10 @@
         <v>185</v>
       </c>
       <c r="C173" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D173" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -8474,10 +8474,10 @@
         <v>186</v>
       </c>
       <c r="C174" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D174" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -8488,10 +8488,10 @@
         <v>187</v>
       </c>
       <c r="C175" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D175" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -8502,10 +8502,10 @@
         <v>188</v>
       </c>
       <c r="C176" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D176" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -8516,10 +8516,10 @@
         <v>189</v>
       </c>
       <c r="C177" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D177" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -8530,10 +8530,10 @@
         <v>190</v>
       </c>
       <c r="C178" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D178" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -8544,10 +8544,10 @@
         <v>191</v>
       </c>
       <c r="C179" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D179" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -8558,10 +8558,10 @@
         <v>192</v>
       </c>
       <c r="C180" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D180" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -8572,10 +8572,10 @@
         <v>193</v>
       </c>
       <c r="C181" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D181" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -8586,10 +8586,10 @@
         <v>194</v>
       </c>
       <c r="C182" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D182" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -8600,10 +8600,10 @@
         <v>195</v>
       </c>
       <c r="C183" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D183" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -8614,10 +8614,10 @@
         <v>196</v>
       </c>
       <c r="C184" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D184" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -8628,10 +8628,10 @@
         <v>197</v>
       </c>
       <c r="C185" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D185" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -8642,10 +8642,10 @@
         <v>198</v>
       </c>
       <c r="C186" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D186" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -8656,10 +8656,10 @@
         <v>199</v>
       </c>
       <c r="C187" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D187" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -8670,10 +8670,10 @@
         <v>200</v>
       </c>
       <c r="C188" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D188" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -8684,10 +8684,10 @@
         <v>201</v>
       </c>
       <c r="C189" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D189" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -8698,10 +8698,10 @@
         <v>202</v>
       </c>
       <c r="C190" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D190" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -8712,10 +8712,10 @@
         <v>203</v>
       </c>
       <c r="C191" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D191" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -8726,10 +8726,10 @@
         <v>204</v>
       </c>
       <c r="C192" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D192" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -8740,10 +8740,10 @@
         <v>205</v>
       </c>
       <c r="C193" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D193" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -8754,10 +8754,10 @@
         <v>206</v>
       </c>
       <c r="C194" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D194" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -8768,10 +8768,10 @@
         <v>207</v>
       </c>
       <c r="C195" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D195" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -8782,10 +8782,10 @@
         <v>208</v>
       </c>
       <c r="C196" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D196" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -8796,10 +8796,10 @@
         <v>209</v>
       </c>
       <c r="C197" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D197" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -8810,10 +8810,10 @@
         <v>210</v>
       </c>
       <c r="C198" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D198" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -8824,10 +8824,10 @@
         <v>211</v>
       </c>
       <c r="C199" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D199" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -8838,10 +8838,10 @@
         <v>212</v>
       </c>
       <c r="C200" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D200" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -8852,10 +8852,10 @@
         <v>213</v>
       </c>
       <c r="C201" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D201" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -8866,10 +8866,10 @@
         <v>214</v>
       </c>
       <c r="C202" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D202" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -8877,13 +8877,13 @@
         <v>416</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C203" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D203" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -8891,13 +8891,13 @@
         <v>398.5</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C204" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D204" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -8905,13 +8905,13 @@
         <v>335</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C205" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D205" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -8919,13 +8919,13 @@
         <v>360.5</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C206" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D206" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -8933,13 +8933,13 @@
         <v>171.5</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C207" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D207" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -8947,13 +8947,13 @@
         <v>448.5</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C208" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D208" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -8961,13 +8961,13 @@
         <v>386.5</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C209" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D209" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -8975,13 +8975,13 @@
         <v>460</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C210" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D210" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -8989,13 +8989,13 @@
         <v>393</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C211" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D211" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I211" s="6"/>
     </row>
@@ -9004,13 +9004,13 @@
         <v>286.5</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C212" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D212" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="I212" s="6"/>
     </row>
@@ -9019,13 +9019,13 @@
         <v>223</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C213" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D213" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I213" s="6"/>
     </row>
@@ -9034,13 +9034,13 @@
         <v>314.5</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C214" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D214" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I214" s="6"/>
     </row>
@@ -9049,13 +9049,13 @@
         <v>354</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C215" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D215" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I215" s="6"/>
     </row>
@@ -9064,13 +9064,13 @@
         <v>312.5</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C216" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D216" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I216" s="6"/>
     </row>
@@ -9079,13 +9079,13 @@
         <v>346</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C217" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D217" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I217" s="6"/>
     </row>
@@ -9094,13 +9094,13 @@
         <v>154.5</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C218" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D218" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I218" s="6"/>
     </row>
@@ -9109,13 +9109,13 @@
         <v>302.5</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C219" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D219" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -9123,13 +9123,13 @@
         <v>265.5</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C220" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D220" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -9137,13 +9137,13 @@
         <v>228.5</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C221" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D221" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -9151,13 +9151,13 @@
         <v>342</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C222" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D222" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -9165,13 +9165,13 @@
         <v>610.5</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C223" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D223" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -9179,13 +9179,13 @@
         <v>328</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C224" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D224" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -9193,13 +9193,13 @@
         <v>236</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C225" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D225" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -9207,13 +9207,13 @@
         <v>428</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C226" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D226" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -9221,13 +9221,13 @@
         <v>398</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C227" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D227" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -9235,13 +9235,13 @@
         <v>385.5</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C228" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D228" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -9249,13 +9249,13 @@
         <v>271</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C229" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D229" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -9263,13 +9263,13 @@
         <v>447.5</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C230" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D230" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -9277,13 +9277,13 @@
         <v>261.5</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C231" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D231" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -9291,13 +9291,13 @@
         <v>274</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C232" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D232" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -9305,13 +9305,13 @@
         <v>281</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C233" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D233" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -9319,13 +9319,13 @@
         <v>268</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C234" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D234" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -9333,13 +9333,13 @@
         <v>317</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C235" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D235" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -9347,13 +9347,13 @@
         <v>219.5</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C236" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D236" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -9361,13 +9361,13 @@
         <v>271.5</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C237" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D237" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -9375,13 +9375,13 @@
         <v>277</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C238" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D238" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -9389,13 +9389,13 @@
         <v>249</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C239" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D239" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -9403,13 +9403,13 @@
         <v>316</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C240" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D240" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -9417,13 +9417,13 @@
         <v>330.5</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C241" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D241" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -9431,13 +9431,13 @@
         <v>252.5</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C242" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D242" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -9445,13 +9445,13 @@
         <v>384.5</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C243" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D243" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -9459,13 +9459,13 @@
         <v>553</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C244" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D244" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -9473,13 +9473,13 @@
         <v>411</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C245" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D245" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -9487,13 +9487,13 @@
         <v>354</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C246" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D246" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -9501,13 +9501,13 @@
         <v>456</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C247" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D247" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -9515,13 +9515,13 @@
         <v>190.5</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C248" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D248" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -9529,13 +9529,13 @@
         <v>448.5</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C249" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D249" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -9543,13 +9543,13 @@
         <v>355</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C250" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D250" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -9557,13 +9557,13 @@
         <v>426.5</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C251" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D251" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -9571,13 +9571,13 @@
         <v>288.5</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C252" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D252" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -9585,13 +9585,13 @@
         <v>300</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C253" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D253" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -9599,13 +9599,13 @@
         <v>305.5</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C254" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D254" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -9613,13 +9613,13 @@
         <v>374.5</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C255" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D255" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -9627,13 +9627,13 @@
         <v>217</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C256" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D256" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -9641,13 +9641,13 @@
         <v>283.5</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C257" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D257" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -9655,13 +9655,13 @@
         <v>381.5</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C258" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D258" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -9669,13 +9669,13 @@
         <v>233</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C259" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D259" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -9683,13 +9683,13 @@
         <v>185.5</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C260" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D260" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -9697,13 +9697,13 @@
         <v>301</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C261" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D261" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -9711,13 +9711,13 @@
         <v>358.5</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C262" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D262" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -9725,13 +9725,13 @@
         <v>207</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C263" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D263" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -9739,13 +9739,13 @@
         <v>358</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C264" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D264" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -9753,13 +9753,13 @@
         <v>469.5</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C265" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D265" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -9767,13 +9767,13 @@
         <v>404.5</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C266" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D266" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -9781,13 +9781,13 @@
         <v>497.5</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C267" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D267" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -9795,13 +9795,13 @@
         <v>390.5</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C268" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D268" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -9809,13 +9809,13 @@
         <v>501.49999999999994</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C269" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D269" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -9823,13 +9823,13 @@
         <v>333.5</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C270" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D270" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -9837,13 +9837,13 @@
         <v>426</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C271" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D271" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -9851,13 +9851,13 @@
         <v>232</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C272" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D272" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -9865,13 +9865,13 @@
         <v>268.5</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C273" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D273" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -9879,13 +9879,13 @@
         <v>378.5</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C274" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D274" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -9893,13 +9893,13 @@
         <v>296</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C275" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D275" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -9907,13 +9907,13 @@
         <v>387</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C276" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D276" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -9921,13 +9921,13 @@
         <v>487</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C277" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D277" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -9935,13 +9935,13 @@
         <v>366</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C278" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D278" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -9949,13 +9949,13 @@
         <v>482</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C279" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D279" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -9963,13 +9963,13 @@
         <v>255</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C280" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D280" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -9977,13 +9977,13 @@
         <v>513</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C281" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D281" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -9991,13 +9991,13 @@
         <v>521</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C282" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D282" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -10005,13 +10005,13 @@
         <v>323</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C283" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D283" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -10019,13 +10019,13 @@
         <v>245.5</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C284" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D284" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -10033,13 +10033,13 @@
         <v>325.5</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C285" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D285" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -10047,13 +10047,13 @@
         <v>368.5</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C286" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D286" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -10061,13 +10061,13 @@
         <v>332</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C287" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D287" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -10075,13 +10075,13 @@
         <v>353.5</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C288" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D288" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -10089,13 +10089,13 @@
         <v>281.5</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C289" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D289" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -10103,13 +10103,13 @@
         <v>333</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C290" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D290" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -10117,13 +10117,13 @@
         <v>451</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C291" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D291" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -10131,13 +10131,13 @@
         <v>288.5</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C292" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D292" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -10145,13 +10145,13 @@
         <v>269</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C293" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D293" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -10159,13 +10159,13 @@
         <v>400.5</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C294" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D294" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -10173,13 +10173,13 @@
         <v>390</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C295" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D295" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -10187,13 +10187,13 @@
         <v>332</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C296" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D296" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -10201,13 +10201,13 @@
         <v>222</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C297" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D297" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -10215,13 +10215,13 @@
         <v>353.5</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C298" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D298" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -10229,13 +10229,13 @@
         <v>380</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C299" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D299" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -10243,13 +10243,13 @@
         <v>277</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C300" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D300" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -10257,13 +10257,13 @@
         <v>384.5</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C301" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D301" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -10271,13 +10271,13 @@
         <v>257.5</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C302" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D302" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -10285,13 +10285,13 @@
         <v>194.5</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C303" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D303" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -10299,13 +10299,13 @@
         <v>317.5</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C304" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D304" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
@@ -10313,13 +10313,13 @@
         <v>267</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C305" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D305" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
@@ -10327,13 +10327,13 @@
         <v>223</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C306" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D306" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
@@ -10341,13 +10341,13 @@
         <v>333.5</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C307" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D307" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
@@ -10355,13 +10355,13 @@
         <v>214</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C308" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D308" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
@@ -10369,13 +10369,13 @@
         <v>448</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C309" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D309" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
@@ -10383,13 +10383,13 @@
         <v>378.5</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C310" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D310" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H310" s="6"/>
     </row>
@@ -10398,13 +10398,13 @@
         <v>163.5</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C311" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D311" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H311" s="6"/>
     </row>
@@ -10413,13 +10413,13 @@
         <v>200.5</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C312" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D312" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="H312" s="6"/>
     </row>
@@ -10428,13 +10428,13 @@
         <v>323</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C313" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D313" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H313" s="6"/>
     </row>
@@ -10443,13 +10443,13 @@
         <v>243.5</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C314" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D314" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H314" s="6"/>
     </row>
@@ -10458,13 +10458,13 @@
         <v>160.5</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C315" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D315" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H315" s="6"/>
     </row>
@@ -10473,13 +10473,13 @@
         <v>327</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C316" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D316" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H316" s="6"/>
     </row>
@@ -10488,13 +10488,13 @@
         <v>300</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C317" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D317" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H317" s="6"/>
     </row>
@@ -10503,13 +10503,13 @@
         <v>343</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C318" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D318" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
@@ -10517,13 +10517,13 @@
         <v>323</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C319" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D319" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
@@ -10531,13 +10531,13 @@
         <v>311</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C320" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D320" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -10545,13 +10545,13 @@
         <v>588.5</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C321" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D321" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -10559,13 +10559,13 @@
         <v>255.5</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C322" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D322" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -10573,13 +10573,13 @@
         <v>265.5</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C323" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D323" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -10587,13 +10587,13 @@
         <v>297</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C324" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D324" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -10601,13 +10601,13 @@
         <v>390.5</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C325" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D325" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
@@ -10615,13 +10615,13 @@
         <v>468</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C326" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D326" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
@@ -10629,13 +10629,13 @@
         <v>203.5</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C327" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D327" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -10643,13 +10643,13 @@
         <v>304</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C328" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D328" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -10657,13 +10657,13 @@
         <v>391</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C329" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D329" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
@@ -10671,13 +10671,13 @@
         <v>289</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C330" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D330" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
@@ -10685,13 +10685,13 @@
         <v>336.5</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C331" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D331" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
@@ -10699,13 +10699,13 @@
         <v>212.5</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C332" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D332" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
@@ -10713,13 +10713,13 @@
         <v>252.5</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C333" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D333" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
@@ -10727,13 +10727,13 @@
         <v>310</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C334" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D334" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
@@ -10741,13 +10741,13 @@
         <v>440</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C335" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D335" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
@@ -10755,13 +10755,13 @@
         <v>262.5</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C336" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D336" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
@@ -10769,13 +10769,13 @@
         <v>402</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C337" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D337" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
@@ -10783,13 +10783,13 @@
         <v>296</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C338" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D338" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -10797,13 +10797,13 @@
         <v>347</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C339" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D339" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -10811,13 +10811,13 @@
         <v>300</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C340" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D340" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
@@ -10825,13 +10825,13 @@
         <v>452</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C341" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D341" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
@@ -10839,13 +10839,13 @@
         <v>300.5</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C342" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D342" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -10853,13 +10853,13 @@
         <v>281</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C343" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D343" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
@@ -10867,13 +10867,13 @@
         <v>237.5</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C344" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D344" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
@@ -10881,13 +10881,13 @@
         <v>179.5</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C345" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D345" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
@@ -10895,13 +10895,13 @@
         <v>235</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C346" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D346" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
@@ -10909,13 +10909,13 @@
         <v>326.5</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C347" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D347" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
@@ -10923,13 +10923,13 @@
         <v>354</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C348" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D348" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
@@ -10937,13 +10937,13 @@
         <v>257</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C349" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D349" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
@@ -10951,13 +10951,13 @@
         <v>184</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C350" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D350" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
@@ -10965,13 +10965,13 @@
         <v>320</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C351" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D351" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
@@ -10979,13 +10979,13 @@
         <v>242.5</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C352" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D352" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
@@ -10993,13 +10993,13 @@
         <v>328</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C353" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D353" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
@@ -11007,13 +11007,13 @@
         <v>267.5</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C354" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D354" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
@@ -11021,13 +11021,13 @@
         <v>219</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C355" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D355" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
@@ -11035,13 +11035,13 @@
         <v>240</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C356" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D356" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
@@ -11049,13 +11049,13 @@
         <v>271.5</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C357" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D357" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
@@ -11063,13 +11063,13 @@
         <v>431</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C358" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D358" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
@@ -11077,13 +11077,13 @@
         <v>296</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C359" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D359" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
@@ -11091,13 +11091,13 @@
         <v>220</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C360" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D360" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
@@ -11105,13 +11105,13 @@
         <v>387.5</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C361" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D361" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
@@ -11119,13 +11119,13 @@
         <v>381</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C362" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D362" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
@@ -11133,13 +11133,13 @@
         <v>500</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C363" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D363" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
@@ -11147,13 +11147,13 @@
         <v>313.5</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C364" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D364" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
@@ -11161,13 +11161,13 @@
         <v>350.5</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C365" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D365" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
@@ -11175,13 +11175,13 @@
         <v>423.5</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C366" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D366" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
@@ -11189,13 +11189,13 @@
         <v>429.5</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C367" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D367" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
@@ -11203,13 +11203,13 @@
         <v>349</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C368" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D368" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
@@ -11217,13 +11217,13 @@
         <v>338.5</v>
       </c>
       <c r="B369" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C369" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D369" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
@@ -11231,13 +11231,13 @@
         <v>337.5</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C370" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D370" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
@@ -11245,13 +11245,13 @@
         <v>312.5</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C371" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D371" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.3">
@@ -11259,13 +11259,13 @@
         <v>217.5</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C372" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D372" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
@@ -11273,13 +11273,13 @@
         <v>227</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C373" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D373" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
@@ -11287,13 +11287,13 @@
         <v>472.5</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C374" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D374" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
@@ -11301,13 +11301,13 @@
         <v>417</v>
       </c>
       <c r="B375" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C375" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D375" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
@@ -11315,13 +11315,13 @@
         <v>430</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C376" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D376" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
@@ -11329,13 +11329,13 @@
         <v>259</v>
       </c>
       <c r="B377" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C377" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D377" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
@@ -11343,13 +11343,13 @@
         <v>213</v>
       </c>
       <c r="B378" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C378" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D378" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
@@ -11357,13 +11357,13 @@
         <v>308.5</v>
       </c>
       <c r="B379" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C379" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D379" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
@@ -11371,13 +11371,13 @@
         <v>323.5</v>
       </c>
       <c r="B380" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C380" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D380" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
@@ -11385,13 +11385,13 @@
         <v>256.5</v>
       </c>
       <c r="B381" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C381" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D381" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
@@ -11399,13 +11399,13 @@
         <v>246.5</v>
       </c>
       <c r="B382" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C382" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D382" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
@@ -11413,13 +11413,13 @@
         <v>334</v>
       </c>
       <c r="B383" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C383" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D383" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
@@ -11427,13 +11427,13 @@
         <v>261.5</v>
       </c>
       <c r="B384" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C384" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D384" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H384" s="6"/>
     </row>
@@ -11442,13 +11442,13 @@
         <v>255</v>
       </c>
       <c r="B385" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C385" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D385" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H385" s="6"/>
     </row>
@@ -11457,13 +11457,13 @@
         <v>321</v>
       </c>
       <c r="B386" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C386" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D386" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="H386" s="6"/>
     </row>
@@ -11472,13 +11472,13 @@
         <v>396.5</v>
       </c>
       <c r="B387" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C387" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D387" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H387" s="6"/>
     </row>
@@ -11487,13 +11487,13 @@
         <v>364.5</v>
       </c>
       <c r="B388" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C388" t="s">
-        <v>216</v>
+        <v>810</v>
       </c>
       <c r="D388" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="H388" s="6"/>
     </row>
@@ -11502,13 +11502,13 @@
         <v>306.5</v>
       </c>
       <c r="B389" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C389" t="s">
-        <v>217</v>
+        <v>809</v>
       </c>
       <c r="D389" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="H389" s="6"/>
     </row>
@@ -11517,13 +11517,13 @@
         <v>186</v>
       </c>
       <c r="B390" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C390" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D390" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H390" s="6"/>
     </row>
@@ -11532,13 +11532,13 @@
         <v>251.5</v>
       </c>
       <c r="B391" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C391" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D391" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
@@ -11546,13 +11546,13 @@
         <v>264</v>
       </c>
       <c r="B392" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C392" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D392" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
@@ -11560,13 +11560,13 @@
         <v>173.5</v>
       </c>
       <c r="B393" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C393" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D393" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
@@ -11574,13 +11574,13 @@
         <v>256</v>
       </c>
       <c r="B394" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C394" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D394" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
@@ -11588,13 +11588,13 @@
         <v>260</v>
       </c>
       <c r="B395" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C395" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D395" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -11614,7 +11614,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
